--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_35.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1244244.011738004</v>
+        <v>1250047.163122459</v>
       </c>
     </row>
     <row r="7">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>716866.7963774089</v>
+        <v>716866.7963774086</v>
       </c>
       <c r="C2" t="n">
         <v>716866.7963774088</v>
       </c>
       <c r="D2" t="n">
-        <v>716866.7963774084</v>
+        <v>716866.7963774088</v>
       </c>
       <c r="E2" t="n">
         <v>214928.0813476831</v>
       </c>
       <c r="F2" t="n">
-        <v>380413.3939910796</v>
+        <v>380413.3939910795</v>
       </c>
       <c r="G2" t="n">
         <v>380413.3939910796</v>
       </c>
       <c r="H2" t="n">
+        <v>380413.3939910795</v>
+      </c>
+      <c r="I2" t="n">
         <v>380413.3939910792</v>
-      </c>
-      <c r="I2" t="n">
-        <v>380413.3939910796</v>
       </c>
       <c r="J2" t="n">
         <v>371760.8512337616</v>
       </c>
       <c r="K2" t="n">
-        <v>485273.5829032721</v>
+        <v>485273.5829032719</v>
       </c>
       <c r="L2" t="n">
         <v>485273.5829032719</v>
       </c>
       <c r="M2" t="n">
-        <v>485273.5829032719</v>
+        <v>485273.582903272</v>
       </c>
       <c r="N2" t="n">
         <v>485273.5829032719</v>
       </c>
       <c r="O2" t="n">
-        <v>470628.7550249556</v>
+        <v>470628.7550249555</v>
       </c>
       <c r="P2" t="n">
         <v>188137.9596800312</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>463844.3331297129</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="C4" t="n">
-        <v>463844.333129713</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>463844.3331297129</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>136427.0845674644</v>
+        <v>135733.4825398612</v>
       </c>
       <c r="F4" t="n">
-        <v>244374.0193639873</v>
+        <v>243680.4173363842</v>
       </c>
       <c r="G4" t="n">
-        <v>244374.0193639873</v>
+        <v>243680.4173363842</v>
       </c>
       <c r="H4" t="n">
-        <v>244374.0193639873</v>
+        <v>243680.4173363842</v>
       </c>
       <c r="I4" t="n">
-        <v>244374.0193639873</v>
+        <v>243680.4173363842</v>
       </c>
       <c r="J4" t="n">
-        <v>238729.9204773325</v>
+        <v>238036.3184497294</v>
       </c>
       <c r="K4" t="n">
-        <v>312774.8689284893</v>
+        <v>312081.2669008861</v>
       </c>
       <c r="L4" t="n">
-        <v>312774.8689284893</v>
+        <v>312081.2669008861</v>
       </c>
       <c r="M4" t="n">
-        <v>312774.8689284893</v>
+        <v>312081.2669008861</v>
       </c>
       <c r="N4" t="n">
-        <v>312774.8689284893</v>
+        <v>312081.2669008861</v>
       </c>
       <c r="O4" t="n">
-        <v>303221.9711224253</v>
+        <v>302528.369094822</v>
       </c>
       <c r="P4" t="n">
-        <v>118951.7481121942</v>
+        <v>118258.146084591</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>219394.863247696</v>
+        <v>220088.4652752988</v>
       </c>
       <c r="C6" t="n">
-        <v>219394.8632476958</v>
+        <v>220088.465275299</v>
       </c>
       <c r="D6" t="n">
-        <v>219394.8632476955</v>
+        <v>220088.465275299</v>
       </c>
       <c r="E6" t="n">
-        <v>67937.00048977582</v>
+        <v>68630.60251737895</v>
       </c>
       <c r="F6" t="n">
-        <v>64917.52087150284</v>
+        <v>65611.12289910589</v>
       </c>
       <c r="G6" t="n">
-        <v>128367.1284915746</v>
+        <v>129060.7305191777</v>
       </c>
       <c r="H6" t="n">
-        <v>128367.1284915743</v>
+        <v>129060.7305191777</v>
       </c>
       <c r="I6" t="n">
-        <v>128367.1284915746</v>
+        <v>129060.7305191774</v>
       </c>
       <c r="J6" t="n">
-        <v>119533.2017712203</v>
+        <v>120226.8037988234</v>
       </c>
       <c r="K6" t="n">
-        <v>50428.07662751495</v>
+        <v>51121.67865511792</v>
       </c>
       <c r="L6" t="n">
-        <v>160302.8903580833</v>
+        <v>160996.4923856864</v>
       </c>
       <c r="M6" t="n">
-        <v>160302.8903580833</v>
+        <v>160996.4923856865</v>
       </c>
       <c r="N6" t="n">
-        <v>160302.8903580833</v>
+        <v>160996.4923856864</v>
       </c>
       <c r="O6" t="n">
-        <v>155860.4517581364</v>
+        <v>156554.0537857396</v>
       </c>
       <c r="P6" t="n">
-        <v>69186.21156783702</v>
+        <v>69879.81359544014</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1250047.163122459</v>
+        <v>1232868.832947769</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5413711.842050619</v>
+        <v>5739672.253402798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11192483.67277902</v>
+        <v>12703441.69178931</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6805068.967235102</v>
+        <v>6443968.924099143</v>
       </c>
     </row>
     <row r="11">
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8851,19 +8853,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>134.8846762812383</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M13" t="n">
-        <v>138.9257839476051</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N13" t="n">
-        <v>127.6855444652332</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O13" t="n">
-        <v>138.4565384518428</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P13" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8927,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9088,19 +9090,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>134.8846762812383</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M16" t="n">
-        <v>138.9257839476051</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N16" t="n">
-        <v>127.6855444652332</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O16" t="n">
-        <v>138.4565384518428</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P16" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9325,19 +9327,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>134.8846762812383</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M19" t="n">
-        <v>138.9257839476051</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N19" t="n">
-        <v>127.6855444652332</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O19" t="n">
-        <v>138.4565384518428</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P19" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9401,22 +9403,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0898510449805</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L20" t="n">
-        <v>235.7664149699872</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M20" t="n">
-        <v>230.3462332272727</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N20" t="n">
-        <v>229.4130635965909</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O20" t="n">
-        <v>230.0982114216867</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P20" t="n">
-        <v>231.2329957552695</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9562,19 +9564,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>134.8846762812383</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M22" t="n">
-        <v>138.9257839476051</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N22" t="n">
-        <v>127.6855444652332</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O22" t="n">
-        <v>138.4565384518428</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9638,22 +9640,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>220.0898510449805</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L23" t="n">
-        <v>235.7664149699872</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M23" t="n">
-        <v>230.3462332272727</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N23" t="n">
-        <v>229.4130635965909</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O23" t="n">
-        <v>230.0982114216867</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P23" t="n">
-        <v>231.2329957552695</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9799,19 +9801,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>134.8846762812383</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M25" t="n">
-        <v>138.9257839476051</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N25" t="n">
-        <v>127.6855444652332</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O25" t="n">
-        <v>138.4565384518428</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P25" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9875,22 +9877,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>220.0898510449805</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L26" t="n">
-        <v>235.7664149699872</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M26" t="n">
-        <v>230.3462332272727</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N26" t="n">
-        <v>229.4130635965909</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O26" t="n">
-        <v>230.0982114216867</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P26" t="n">
-        <v>231.2329957552695</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10036,19 +10038,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>134.8846762812383</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M28" t="n">
-        <v>138.9257839476051</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N28" t="n">
-        <v>127.6855444652332</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O28" t="n">
-        <v>138.4565384518428</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10112,22 +10114,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>220.0898510449805</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L29" t="n">
-        <v>235.7664149699872</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M29" t="n">
-        <v>230.3462332272727</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N29" t="n">
-        <v>229.4130635965909</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O29" t="n">
-        <v>230.0982114216867</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P29" t="n">
-        <v>231.2329957552695</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10188,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10273,19 +10275,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>134.8846762812383</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M31" t="n">
-        <v>138.9257839476051</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N31" t="n">
-        <v>127.6855444652332</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O31" t="n">
-        <v>138.4565384518428</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10349,22 +10351,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>220.0898510449805</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L32" t="n">
-        <v>235.7664149699872</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M32" t="n">
-        <v>230.3462332272727</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N32" t="n">
-        <v>229.4130635965909</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O32" t="n">
-        <v>230.0982114216867</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P32" t="n">
-        <v>231.2329957552695</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10510,19 +10512,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>134.8846762812383</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M34" t="n">
-        <v>138.9257839476051</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N34" t="n">
-        <v>127.6855444652332</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O34" t="n">
-        <v>138.4565384518428</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10586,22 +10588,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L35" t="n">
-        <v>235.7664149699872</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M35" t="n">
-        <v>230.3462332272727</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O35" t="n">
-        <v>230.0982114216867</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P35" t="n">
-        <v>231.2329957552695</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10747,19 +10749,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>134.8846762812383</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M37" t="n">
-        <v>138.9257839476051</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N37" t="n">
-        <v>127.6855444652332</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O37" t="n">
-        <v>138.4565384518428</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P37" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10823,22 +10825,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L38" t="n">
-        <v>235.7664149699872</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M38" t="n">
-        <v>230.3462332272727</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N38" t="n">
-        <v>229.4130635965909</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O38" t="n">
-        <v>230.0982114216867</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P38" t="n">
-        <v>231.2329957552695</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10899,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10984,19 +10986,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>134.8846762812383</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M40" t="n">
-        <v>138.9257839476051</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N40" t="n">
-        <v>127.6855444652332</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O40" t="n">
-        <v>138.4565384518428</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11060,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L41" t="n">
-        <v>235.7664149699872</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M41" t="n">
-        <v>230.3462332272727</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O41" t="n">
-        <v>230.0982114216867</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11221,19 +11223,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>134.8846762812383</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M43" t="n">
-        <v>138.9257839476051</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N43" t="n">
-        <v>127.6855444652332</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O43" t="n">
-        <v>138.4565384518428</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11458,19 +11460,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M46" t="n">
-        <v>138.9257839476051</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N46" t="n">
-        <v>127.6855444652332</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>370.7845523088681</v>
+        <v>300.0468191974913</v>
       </c>
       <c r="C11" t="n">
-        <v>353.323602416395</v>
+        <v>282.5858693050184</v>
       </c>
       <c r="D11" t="n">
-        <v>342.7337522660704</v>
+        <v>271.9960191546937</v>
       </c>
       <c r="E11" t="n">
-        <v>369.9810807176493</v>
+        <v>299.2433476062726</v>
       </c>
       <c r="F11" t="n">
-        <v>394.9267563870989</v>
+        <v>324.1890232757222</v>
       </c>
       <c r="G11" t="n">
-        <v>403.3534481605225</v>
+        <v>332.5231989378422</v>
       </c>
       <c r="H11" t="n">
-        <v>327.5255127611546</v>
+        <v>255.8402990248892</v>
       </c>
       <c r="I11" t="n">
-        <v>198.5266002157934</v>
+        <v>124.2221397233818</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>137.9198285865372</v>
+        <v>61.37058029848097</v>
       </c>
       <c r="S11" t="n">
-        <v>197.0707802316328</v>
+        <v>124.2248362339236</v>
       </c>
       <c r="T11" t="n">
-        <v>211.1465602095188</v>
+        <v>140.0038378209103</v>
       </c>
       <c r="U11" t="n">
-        <v>239.396363553224</v>
+        <v>168.651229152943</v>
       </c>
       <c r="V11" t="n">
-        <v>315.8029691155224</v>
+        <v>245.0652360041457</v>
       </c>
       <c r="W11" t="n">
-        <v>337.2916793628005</v>
+        <v>266.5539462514238</v>
       </c>
       <c r="X11" t="n">
-        <v>357.7818113238565</v>
+        <v>287.0440782124798</v>
       </c>
       <c r="Y11" t="n">
-        <v>374.2886493014411</v>
+        <v>303.5509161900644</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>154.5838942952548</v>
+        <v>83.84616118387814</v>
       </c>
       <c r="C12" t="n">
-        <v>160.7592096337032</v>
+        <v>90.02147652232654</v>
       </c>
       <c r="D12" t="n">
-        <v>135.4957762100262</v>
+        <v>64.75804309864955</v>
       </c>
       <c r="E12" t="n">
-        <v>145.6957911007884</v>
+        <v>74.95805798941174</v>
       </c>
       <c r="F12" t="n">
-        <v>133.1199230387714</v>
+        <v>62.38218992739468</v>
       </c>
       <c r="G12" t="n">
-        <v>125.3942278085981</v>
+        <v>54.60699421370646</v>
       </c>
       <c r="H12" t="n">
-        <v>100.2861548818839</v>
+        <v>29.07035131129679</v>
       </c>
       <c r="I12" t="n">
-        <v>77.44734349680256</v>
+        <v>5.005317422300436</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>88.20854479803062</v>
+        <v>14.39743956104837</v>
       </c>
       <c r="S12" t="n">
-        <v>159.7338817492253</v>
+        <v>88.07669886729624</v>
       </c>
       <c r="T12" t="n">
-        <v>188.2154393402091</v>
+        <v>117.2781845430856</v>
       </c>
       <c r="U12" t="n">
-        <v>213.9920927263623</v>
+        <v>143.251103004228</v>
       </c>
       <c r="V12" t="n">
-        <v>220.8512977948128</v>
+        <v>150.1135646834361</v>
       </c>
       <c r="W12" t="n">
-        <v>239.7456938063071</v>
+        <v>169.0079606949304</v>
       </c>
       <c r="X12" t="n">
-        <v>193.823695848865</v>
+        <v>123.0859627374883</v>
       </c>
       <c r="Y12" t="n">
-        <v>193.7334064226918</v>
+        <v>122.9956733113152</v>
       </c>
     </row>
     <row r="13">
@@ -23413,34 +23415,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>167.8826908273248</v>
+        <v>97.1449577159481</v>
       </c>
       <c r="C13" t="n">
-        <v>155.2975317440153</v>
+        <v>84.55979863263863</v>
       </c>
       <c r="D13" t="n">
-        <v>136.6661836635998</v>
+        <v>65.92845055222315</v>
       </c>
       <c r="E13" t="n">
-        <v>134.4846732919567</v>
+        <v>63.74694018057997</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4717586683187</v>
+        <v>62.73402555694204</v>
       </c>
       <c r="G13" t="n">
-        <v>156.0416900038462</v>
+        <v>85.2624573499196</v>
       </c>
       <c r="H13" t="n">
-        <v>150.2778831528271</v>
+        <v>79.17118138132449</v>
       </c>
       <c r="I13" t="n">
-        <v>143.5011855726458</v>
+        <v>71.51544803622156</v>
       </c>
       <c r="J13" t="n">
-        <v>81.40989076206026</v>
+        <v>7.738139992402253</v>
       </c>
       <c r="K13" t="n">
-        <v>10.32020247127033</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.21275389708187</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.344102022557</v>
+        <v>92.74039857070716</v>
       </c>
       <c r="S13" t="n">
-        <v>212.0673086823597</v>
+        <v>140.6063517249081</v>
       </c>
       <c r="T13" t="n">
-        <v>215.996300073669</v>
+        <v>145.0812507350334</v>
       </c>
       <c r="U13" t="n">
-        <v>274.3697400018784</v>
+        <v>203.6297432790899</v>
       </c>
       <c r="V13" t="n">
-        <v>240.1883539692155</v>
+        <v>169.4506208578388</v>
       </c>
       <c r="W13" t="n">
-        <v>274.5737089819785</v>
+        <v>203.8359758706018</v>
       </c>
       <c r="X13" t="n">
-        <v>213.7603660344246</v>
+        <v>143.022632923048</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.6353639974823</v>
+        <v>135.8976308861056</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>291.4725427837783</v>
+        <v>300.0468191974913</v>
       </c>
       <c r="C14" t="n">
-        <v>274.0115928913053</v>
+        <v>282.5858693050184</v>
       </c>
       <c r="D14" t="n">
-        <v>263.4217427409807</v>
+        <v>271.9960191546937</v>
       </c>
       <c r="E14" t="n">
-        <v>290.6690711925595</v>
+        <v>299.2433476062726</v>
       </c>
       <c r="F14" t="n">
-        <v>315.6147468620092</v>
+        <v>324.1890232757222</v>
       </c>
       <c r="G14" t="n">
-        <v>324.0414386354328</v>
+        <v>332.5231989378422</v>
       </c>
       <c r="H14" t="n">
-        <v>248.2135032360649</v>
+        <v>255.8402990248892</v>
       </c>
       <c r="I14" t="n">
-        <v>119.2145906907037</v>
+        <v>124.2221397233818</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>58.60781906144743</v>
+        <v>61.37058029848097</v>
       </c>
       <c r="S14" t="n">
-        <v>117.7587707065431</v>
+        <v>124.2248362339236</v>
       </c>
       <c r="T14" t="n">
-        <v>131.8345506844291</v>
+        <v>140.0038378209103</v>
       </c>
       <c r="U14" t="n">
-        <v>160.0843540281342</v>
+        <v>168.651229152943</v>
       </c>
       <c r="V14" t="n">
-        <v>236.4909595904327</v>
+        <v>245.0652360041457</v>
       </c>
       <c r="W14" t="n">
-        <v>257.9796698377107</v>
+        <v>266.5539462514238</v>
       </c>
       <c r="X14" t="n">
-        <v>278.4698017987668</v>
+        <v>287.0440782124798</v>
       </c>
       <c r="Y14" t="n">
-        <v>294.9766397763514</v>
+        <v>303.5509161900644</v>
       </c>
     </row>
     <row r="15">
@@ -23571,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>75.27188477016509</v>
+        <v>83.84616118387814</v>
       </c>
       <c r="C15" t="n">
-        <v>81.44720010861349</v>
+        <v>90.02147652232654</v>
       </c>
       <c r="D15" t="n">
-        <v>56.1837666849365</v>
+        <v>64.75804309864955</v>
       </c>
       <c r="E15" t="n">
-        <v>66.38378157569869</v>
+        <v>74.95805798941174</v>
       </c>
       <c r="F15" t="n">
-        <v>53.80791351368163</v>
+        <v>62.38218992739468</v>
       </c>
       <c r="G15" t="n">
-        <v>46.08221828350838</v>
+        <v>54.60699421370646</v>
       </c>
       <c r="H15" t="n">
-        <v>20.97414535679421</v>
+        <v>29.07035131129679</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>5.005317422300436</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.896535272940881</v>
+        <v>14.39743956104837</v>
       </c>
       <c r="S15" t="n">
-        <v>80.42187222413557</v>
+        <v>88.07669886729624</v>
       </c>
       <c r="T15" t="n">
-        <v>108.9034298151194</v>
+        <v>117.2781845430856</v>
       </c>
       <c r="U15" t="n">
-        <v>134.6800832012726</v>
+        <v>143.251103004228</v>
       </c>
       <c r="V15" t="n">
-        <v>141.539288269723</v>
+        <v>150.1135646834361</v>
       </c>
       <c r="W15" t="n">
-        <v>160.4336842812174</v>
+        <v>169.0079606949304</v>
       </c>
       <c r="X15" t="n">
-        <v>114.5116863237752</v>
+        <v>123.0859627374883</v>
       </c>
       <c r="Y15" t="n">
-        <v>114.4213968976021</v>
+        <v>122.9956733113152</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.57068130223504</v>
+        <v>97.1449577159481</v>
       </c>
       <c r="C16" t="n">
-        <v>75.98552221892558</v>
+        <v>84.55979863263863</v>
       </c>
       <c r="D16" t="n">
-        <v>57.3541741385101</v>
+        <v>65.92845055222315</v>
       </c>
       <c r="E16" t="n">
-        <v>55.17266376686692</v>
+        <v>63.74694018057997</v>
       </c>
       <c r="F16" t="n">
-        <v>54.15974914322899</v>
+        <v>62.73402555694204</v>
       </c>
       <c r="G16" t="n">
-        <v>76.72968047875651</v>
+        <v>85.2624573499196</v>
       </c>
       <c r="H16" t="n">
-        <v>70.96587362773732</v>
+        <v>79.17118138132449</v>
       </c>
       <c r="I16" t="n">
-        <v>64.18917604755603</v>
+        <v>71.51544803622156</v>
       </c>
       <c r="J16" t="n">
-        <v>2.097881236970522</v>
+        <v>7.738139992402253</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>86.03209249746723</v>
+        <v>92.74039857070716</v>
       </c>
       <c r="S16" t="n">
-        <v>132.75529915727</v>
+        <v>140.6063517249081</v>
       </c>
       <c r="T16" t="n">
-        <v>136.6842905485792</v>
+        <v>145.0812507350334</v>
       </c>
       <c r="U16" t="n">
-        <v>195.0577304767886</v>
+        <v>203.6297432790899</v>
       </c>
       <c r="V16" t="n">
-        <v>160.8763444441257</v>
+        <v>169.4506208578388</v>
       </c>
       <c r="W16" t="n">
-        <v>195.2616994568887</v>
+        <v>203.8359758706018</v>
       </c>
       <c r="X16" t="n">
-        <v>134.4483565093349</v>
+        <v>143.022632923048</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.3233544723925</v>
+        <v>135.8976308861056</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>291.4725427837783</v>
+        <v>292.7227606539023</v>
       </c>
       <c r="C17" t="n">
-        <v>274.0115928913053</v>
+        <v>275.2618107614293</v>
       </c>
       <c r="D17" t="n">
-        <v>263.4217427409807</v>
+        <v>264.6719606111047</v>
       </c>
       <c r="E17" t="n">
-        <v>290.6690711925595</v>
+        <v>291.9192890626835</v>
       </c>
       <c r="F17" t="n">
-        <v>315.6147468620092</v>
+        <v>316.8649647321332</v>
       </c>
       <c r="G17" t="n">
-        <v>324.0414386354328</v>
+        <v>325.1991403942531</v>
       </c>
       <c r="H17" t="n">
-        <v>248.2135032360649</v>
+        <v>248.5162404813001</v>
       </c>
       <c r="I17" t="n">
-        <v>119.2145906907037</v>
+        <v>116.8980811797927</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>58.60781906144743</v>
+        <v>54.04652175489188</v>
       </c>
       <c r="S17" t="n">
-        <v>117.7587707065431</v>
+        <v>116.9007776903346</v>
       </c>
       <c r="T17" t="n">
-        <v>131.8345506844291</v>
+        <v>132.6797792773212</v>
       </c>
       <c r="U17" t="n">
-        <v>160.0843540281342</v>
+        <v>161.3271706093539</v>
       </c>
       <c r="V17" t="n">
-        <v>236.4909595904327</v>
+        <v>237.7411774605566</v>
       </c>
       <c r="W17" t="n">
-        <v>257.9796698377107</v>
+        <v>259.2298877078347</v>
       </c>
       <c r="X17" t="n">
-        <v>278.4698017987668</v>
+        <v>279.7200196688908</v>
       </c>
       <c r="Y17" t="n">
-        <v>294.9766397763514</v>
+        <v>296.2268576464753</v>
       </c>
     </row>
     <row r="18">
@@ -23808,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>75.27188477016509</v>
+        <v>76.52210264028905</v>
       </c>
       <c r="C18" t="n">
-        <v>81.44720010861349</v>
+        <v>82.69741797873745</v>
       </c>
       <c r="D18" t="n">
-        <v>56.1837666849365</v>
+        <v>57.43398455506046</v>
       </c>
       <c r="E18" t="n">
-        <v>66.38378157569869</v>
+        <v>67.63399944582265</v>
       </c>
       <c r="F18" t="n">
-        <v>53.80791351368163</v>
+        <v>55.05813138380559</v>
       </c>
       <c r="G18" t="n">
-        <v>46.08221828350838</v>
+        <v>47.28293567011737</v>
       </c>
       <c r="H18" t="n">
-        <v>20.97414535679421</v>
+        <v>21.7462927677077</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.896535272940881</v>
+        <v>7.073381017459283</v>
       </c>
       <c r="S18" t="n">
-        <v>80.42187222413557</v>
+        <v>80.75264032370715</v>
       </c>
       <c r="T18" t="n">
-        <v>108.9034298151194</v>
+        <v>109.9541259994965</v>
       </c>
       <c r="U18" t="n">
-        <v>134.6800832012726</v>
+        <v>135.927044460639</v>
       </c>
       <c r="V18" t="n">
-        <v>141.539288269723</v>
+        <v>142.789506139847</v>
       </c>
       <c r="W18" t="n">
-        <v>160.4336842812174</v>
+        <v>161.6839021513413</v>
       </c>
       <c r="X18" t="n">
-        <v>114.5116863237752</v>
+        <v>115.7619041938992</v>
       </c>
       <c r="Y18" t="n">
-        <v>114.4213968976021</v>
+        <v>115.6716147677261</v>
       </c>
     </row>
     <row r="19">
@@ -23887,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>88.57068130223504</v>
+        <v>89.82089917235901</v>
       </c>
       <c r="C19" t="n">
-        <v>75.98552221892558</v>
+        <v>77.23574008904954</v>
       </c>
       <c r="D19" t="n">
-        <v>57.3541741385101</v>
+        <v>58.60439200863406</v>
       </c>
       <c r="E19" t="n">
-        <v>55.17266376686692</v>
+        <v>56.42288163699088</v>
       </c>
       <c r="F19" t="n">
-        <v>54.15974914322899</v>
+        <v>55.40996701335295</v>
       </c>
       <c r="G19" t="n">
-        <v>76.72968047875651</v>
+        <v>77.93839880633051</v>
       </c>
       <c r="H19" t="n">
-        <v>70.96587362773732</v>
+        <v>71.8471228377354</v>
       </c>
       <c r="I19" t="n">
-        <v>64.18917604755603</v>
+        <v>64.19138949263247</v>
       </c>
       <c r="J19" t="n">
-        <v>2.097881236970522</v>
+        <v>0.4140814488131639</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>86.03209249746723</v>
+        <v>85.41634002711807</v>
       </c>
       <c r="S19" t="n">
-        <v>132.75529915727</v>
+        <v>133.2822931813189</v>
       </c>
       <c r="T19" t="n">
-        <v>136.6842905485792</v>
+        <v>137.7571921914443</v>
       </c>
       <c r="U19" t="n">
-        <v>195.0577304767886</v>
+        <v>196.3056847355008</v>
       </c>
       <c r="V19" t="n">
-        <v>160.8763444441257</v>
+        <v>162.1265623142497</v>
       </c>
       <c r="W19" t="n">
-        <v>195.2616994568887</v>
+        <v>196.5119173270127</v>
       </c>
       <c r="X19" t="n">
-        <v>134.4483565093349</v>
+        <v>135.6985743794589</v>
       </c>
       <c r="Y19" t="n">
-        <v>127.3233544723925</v>
+        <v>128.5735723425165</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>291.4725427837783</v>
+        <v>292.7227606539023</v>
       </c>
       <c r="C20" t="n">
-        <v>274.0115928913053</v>
+        <v>275.2618107614293</v>
       </c>
       <c r="D20" t="n">
-        <v>263.4217427409807</v>
+        <v>264.6719606111047</v>
       </c>
       <c r="E20" t="n">
-        <v>290.6690711925595</v>
+        <v>291.9192890626835</v>
       </c>
       <c r="F20" t="n">
-        <v>315.6147468620092</v>
+        <v>316.8649647321332</v>
       </c>
       <c r="G20" t="n">
-        <v>324.0414386354328</v>
+        <v>325.1991403942531</v>
       </c>
       <c r="H20" t="n">
-        <v>248.2135032360649</v>
+        <v>248.5162404813001</v>
       </c>
       <c r="I20" t="n">
-        <v>119.2145906907037</v>
+        <v>116.8980811797927</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>58.60781906144743</v>
+        <v>54.04652175489188</v>
       </c>
       <c r="S20" t="n">
-        <v>117.7587707065431</v>
+        <v>116.9007776903346</v>
       </c>
       <c r="T20" t="n">
-        <v>131.8345506844291</v>
+        <v>132.6797792773212</v>
       </c>
       <c r="U20" t="n">
-        <v>160.0843540281342</v>
+        <v>161.3271706093539</v>
       </c>
       <c r="V20" t="n">
-        <v>236.4909595904327</v>
+        <v>237.7411774605566</v>
       </c>
       <c r="W20" t="n">
-        <v>257.9796698377107</v>
+        <v>259.2298877078347</v>
       </c>
       <c r="X20" t="n">
-        <v>278.4698017987668</v>
+        <v>279.7200196688908</v>
       </c>
       <c r="Y20" t="n">
-        <v>294.9766397763514</v>
+        <v>296.2268576464753</v>
       </c>
     </row>
     <row r="21">
@@ -24045,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>75.27188477016509</v>
+        <v>76.52210264028905</v>
       </c>
       <c r="C21" t="n">
-        <v>81.44720010861349</v>
+        <v>82.69741797873745</v>
       </c>
       <c r="D21" t="n">
-        <v>56.1837666849365</v>
+        <v>57.43398455506046</v>
       </c>
       <c r="E21" t="n">
-        <v>66.38378157569869</v>
+        <v>67.63399944582265</v>
       </c>
       <c r="F21" t="n">
-        <v>53.80791351368163</v>
+        <v>55.05813138380559</v>
       </c>
       <c r="G21" t="n">
-        <v>46.08221828350838</v>
+        <v>47.28293567011737</v>
       </c>
       <c r="H21" t="n">
-        <v>20.97414535679421</v>
+        <v>21.7462927677077</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.896535272940881</v>
+        <v>7.073381017459283</v>
       </c>
       <c r="S21" t="n">
-        <v>80.42187222413557</v>
+        <v>80.75264032370715</v>
       </c>
       <c r="T21" t="n">
-        <v>108.9034298151194</v>
+        <v>109.9541259994965</v>
       </c>
       <c r="U21" t="n">
-        <v>134.6800832012726</v>
+        <v>135.927044460639</v>
       </c>
       <c r="V21" t="n">
-        <v>141.539288269723</v>
+        <v>142.789506139847</v>
       </c>
       <c r="W21" t="n">
-        <v>160.4336842812174</v>
+        <v>161.6839021513413</v>
       </c>
       <c r="X21" t="n">
-        <v>114.5116863237752</v>
+        <v>115.7619041938992</v>
       </c>
       <c r="Y21" t="n">
-        <v>114.4213968976021</v>
+        <v>115.6716147677261</v>
       </c>
     </row>
     <row r="22">
@@ -24124,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>88.57068130223504</v>
+        <v>89.82089917235901</v>
       </c>
       <c r="C22" t="n">
-        <v>75.98552221892558</v>
+        <v>77.23574008904954</v>
       </c>
       <c r="D22" t="n">
-        <v>57.3541741385101</v>
+        <v>58.60439200863406</v>
       </c>
       <c r="E22" t="n">
-        <v>55.17266376686692</v>
+        <v>56.42288163699088</v>
       </c>
       <c r="F22" t="n">
-        <v>54.15974914322899</v>
+        <v>55.40996701335295</v>
       </c>
       <c r="G22" t="n">
-        <v>76.72968047875651</v>
+        <v>77.93839880633051</v>
       </c>
       <c r="H22" t="n">
-        <v>70.96587362773732</v>
+        <v>71.8471228377354</v>
       </c>
       <c r="I22" t="n">
-        <v>64.18917604755603</v>
+        <v>64.19138949263247</v>
       </c>
       <c r="J22" t="n">
-        <v>2.097881236970522</v>
+        <v>0.4140814488131639</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>86.03209249746723</v>
+        <v>85.41634002711807</v>
       </c>
       <c r="S22" t="n">
-        <v>132.75529915727</v>
+        <v>133.2822931813189</v>
       </c>
       <c r="T22" t="n">
-        <v>136.6842905485792</v>
+        <v>137.7571921914443</v>
       </c>
       <c r="U22" t="n">
-        <v>195.0577304767886</v>
+        <v>196.3056847355008</v>
       </c>
       <c r="V22" t="n">
-        <v>160.8763444441257</v>
+        <v>162.1265623142497</v>
       </c>
       <c r="W22" t="n">
-        <v>195.2616994568887</v>
+        <v>196.5119173270127</v>
       </c>
       <c r="X22" t="n">
-        <v>134.4483565093349</v>
+        <v>135.6985743794589</v>
       </c>
       <c r="Y22" t="n">
-        <v>127.3233544723925</v>
+        <v>128.5735723425165</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>291.4725427837783</v>
+        <v>292.7227606539023</v>
       </c>
       <c r="C23" t="n">
-        <v>274.0115928913053</v>
+        <v>275.2618107614293</v>
       </c>
       <c r="D23" t="n">
-        <v>263.4217427409807</v>
+        <v>264.6719606111047</v>
       </c>
       <c r="E23" t="n">
-        <v>290.6690711925595</v>
+        <v>291.9192890626835</v>
       </c>
       <c r="F23" t="n">
-        <v>315.6147468620092</v>
+        <v>316.8649647321332</v>
       </c>
       <c r="G23" t="n">
-        <v>324.0414386354328</v>
+        <v>325.1991403942531</v>
       </c>
       <c r="H23" t="n">
-        <v>248.2135032360649</v>
+        <v>248.5162404813001</v>
       </c>
       <c r="I23" t="n">
-        <v>119.2145906907037</v>
+        <v>116.8980811797927</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>58.60781906144743</v>
+        <v>54.04652175489188</v>
       </c>
       <c r="S23" t="n">
-        <v>117.7587707065431</v>
+        <v>116.9007776903346</v>
       </c>
       <c r="T23" t="n">
-        <v>131.8345506844291</v>
+        <v>132.6797792773212</v>
       </c>
       <c r="U23" t="n">
-        <v>160.0843540281342</v>
+        <v>161.3271706093539</v>
       </c>
       <c r="V23" t="n">
-        <v>236.4909595904327</v>
+        <v>237.7411774605566</v>
       </c>
       <c r="W23" t="n">
-        <v>257.9796698377107</v>
+        <v>259.2298877078347</v>
       </c>
       <c r="X23" t="n">
-        <v>278.4698017987668</v>
+        <v>279.7200196688908</v>
       </c>
       <c r="Y23" t="n">
-        <v>294.9766397763514</v>
+        <v>296.2268576464753</v>
       </c>
     </row>
     <row r="24">
@@ -24282,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>75.27188477016509</v>
+        <v>76.52210264028905</v>
       </c>
       <c r="C24" t="n">
-        <v>81.44720010861349</v>
+        <v>82.69741797873745</v>
       </c>
       <c r="D24" t="n">
-        <v>56.1837666849365</v>
+        <v>57.43398455506046</v>
       </c>
       <c r="E24" t="n">
-        <v>66.38378157569869</v>
+        <v>67.63399944582265</v>
       </c>
       <c r="F24" t="n">
-        <v>53.80791351368163</v>
+        <v>55.05813138380559</v>
       </c>
       <c r="G24" t="n">
-        <v>46.08221828350838</v>
+        <v>47.28293567011737</v>
       </c>
       <c r="H24" t="n">
-        <v>20.97414535679421</v>
+        <v>21.7462927677077</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.896535272940881</v>
+        <v>7.073381017459283</v>
       </c>
       <c r="S24" t="n">
-        <v>80.42187222413557</v>
+        <v>80.75264032370715</v>
       </c>
       <c r="T24" t="n">
-        <v>108.9034298151194</v>
+        <v>109.9541259994965</v>
       </c>
       <c r="U24" t="n">
-        <v>134.6800832012726</v>
+        <v>135.927044460639</v>
       </c>
       <c r="V24" t="n">
-        <v>141.539288269723</v>
+        <v>142.789506139847</v>
       </c>
       <c r="W24" t="n">
-        <v>160.4336842812174</v>
+        <v>161.6839021513413</v>
       </c>
       <c r="X24" t="n">
-        <v>114.5116863237752</v>
+        <v>115.7619041938992</v>
       </c>
       <c r="Y24" t="n">
-        <v>114.4213968976021</v>
+        <v>115.6716147677261</v>
       </c>
     </row>
     <row r="25">
@@ -24361,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88.57068130223504</v>
+        <v>89.82089917235901</v>
       </c>
       <c r="C25" t="n">
-        <v>75.98552221892558</v>
+        <v>77.23574008904954</v>
       </c>
       <c r="D25" t="n">
-        <v>57.3541741385101</v>
+        <v>58.60439200863406</v>
       </c>
       <c r="E25" t="n">
-        <v>55.17266376686692</v>
+        <v>56.42288163699088</v>
       </c>
       <c r="F25" t="n">
-        <v>54.15974914322899</v>
+        <v>55.40996701335295</v>
       </c>
       <c r="G25" t="n">
-        <v>76.72968047875651</v>
+        <v>77.93839880633051</v>
       </c>
       <c r="H25" t="n">
-        <v>70.96587362773732</v>
+        <v>71.8471228377354</v>
       </c>
       <c r="I25" t="n">
-        <v>64.18917604755603</v>
+        <v>64.19138949263247</v>
       </c>
       <c r="J25" t="n">
-        <v>2.097881236970522</v>
+        <v>0.4140814488131639</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>86.03209249746723</v>
+        <v>85.41634002711807</v>
       </c>
       <c r="S25" t="n">
-        <v>132.75529915727</v>
+        <v>133.2822931813189</v>
       </c>
       <c r="T25" t="n">
-        <v>136.6842905485792</v>
+        <v>137.7571921914443</v>
       </c>
       <c r="U25" t="n">
-        <v>195.0577304767886</v>
+        <v>196.3056847355008</v>
       </c>
       <c r="V25" t="n">
-        <v>160.8763444441257</v>
+        <v>162.1265623142497</v>
       </c>
       <c r="W25" t="n">
-        <v>195.2616994568887</v>
+        <v>196.5119173270127</v>
       </c>
       <c r="X25" t="n">
-        <v>134.4483565093349</v>
+        <v>135.6985743794589</v>
       </c>
       <c r="Y25" t="n">
-        <v>127.3233544723925</v>
+        <v>128.5735723425165</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>295.6961369082176</v>
+        <v>300.0468191974913</v>
       </c>
       <c r="C26" t="n">
-        <v>278.2351870157446</v>
+        <v>282.5858693050184</v>
       </c>
       <c r="D26" t="n">
-        <v>267.6453368654199</v>
+        <v>271.9960191546937</v>
       </c>
       <c r="E26" t="n">
-        <v>294.8926653169988</v>
+        <v>299.2433476062726</v>
       </c>
       <c r="F26" t="n">
-        <v>319.8383409864484</v>
+        <v>324.1890232757222</v>
       </c>
       <c r="G26" t="n">
-        <v>328.265032759872</v>
+        <v>332.5231989378422</v>
       </c>
       <c r="H26" t="n">
-        <v>252.4370973605042</v>
+        <v>255.8402990248892</v>
       </c>
       <c r="I26" t="n">
-        <v>123.4381848151429</v>
+        <v>124.2221397233818</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>62.8314131858867</v>
+        <v>61.37058029848097</v>
       </c>
       <c r="S26" t="n">
-        <v>121.9823648309824</v>
+        <v>124.2248362339236</v>
       </c>
       <c r="T26" t="n">
-        <v>136.0581448088684</v>
+        <v>140.0038378209103</v>
       </c>
       <c r="U26" t="n">
-        <v>164.3079481525735</v>
+        <v>168.651229152943</v>
       </c>
       <c r="V26" t="n">
-        <v>240.7145537148719</v>
+        <v>245.0652360041457</v>
       </c>
       <c r="W26" t="n">
-        <v>262.20326396215</v>
+        <v>266.5539462514238</v>
       </c>
       <c r="X26" t="n">
-        <v>282.693395923206</v>
+        <v>287.0440782124798</v>
       </c>
       <c r="Y26" t="n">
-        <v>299.2002339007906</v>
+        <v>303.5509161900644</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>79.49547889460436</v>
+        <v>83.84616118387814</v>
       </c>
       <c r="C27" t="n">
-        <v>85.67079423305276</v>
+        <v>90.02147652232654</v>
       </c>
       <c r="D27" t="n">
-        <v>60.40736080937577</v>
+        <v>64.75804309864955</v>
       </c>
       <c r="E27" t="n">
-        <v>70.60737570013796</v>
+        <v>74.95805798941174</v>
       </c>
       <c r="F27" t="n">
-        <v>58.0315076381209</v>
+        <v>62.38218992739468</v>
       </c>
       <c r="G27" t="n">
-        <v>50.30581240794766</v>
+        <v>54.60699421370646</v>
       </c>
       <c r="H27" t="n">
-        <v>25.19773948123348</v>
+        <v>29.07035131129679</v>
       </c>
       <c r="I27" t="n">
-        <v>2.358928096152098</v>
+        <v>5.005317422300436</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>13.12012939738015</v>
+        <v>14.39743956104837</v>
       </c>
       <c r="S27" t="n">
-        <v>84.64546634857484</v>
+        <v>88.07669886729624</v>
       </c>
       <c r="T27" t="n">
-        <v>113.1270239395586</v>
+        <v>117.2781845430856</v>
       </c>
       <c r="U27" t="n">
-        <v>138.9036773257118</v>
+        <v>143.251103004228</v>
       </c>
       <c r="V27" t="n">
-        <v>145.7628823941623</v>
+        <v>150.1135646834361</v>
       </c>
       <c r="W27" t="n">
-        <v>164.6572784056566</v>
+        <v>169.0079606949304</v>
       </c>
       <c r="X27" t="n">
-        <v>118.7352804482145</v>
+        <v>123.0859627374883</v>
       </c>
       <c r="Y27" t="n">
-        <v>118.6449910220414</v>
+        <v>122.9956733113152</v>
       </c>
     </row>
     <row r="28">
@@ -24598,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>92.79427542667432</v>
+        <v>97.1449577159481</v>
       </c>
       <c r="C28" t="n">
-        <v>80.20911634336485</v>
+        <v>84.55979863263863</v>
       </c>
       <c r="D28" t="n">
-        <v>61.57776826294938</v>
+        <v>65.92845055222315</v>
       </c>
       <c r="E28" t="n">
-        <v>59.39625789130619</v>
+        <v>63.74694018057997</v>
       </c>
       <c r="F28" t="n">
-        <v>58.38334326766827</v>
+        <v>62.73402555694204</v>
       </c>
       <c r="G28" t="n">
-        <v>80.95327460319578</v>
+        <v>85.2624573499196</v>
       </c>
       <c r="H28" t="n">
-        <v>75.1894677521766</v>
+        <v>79.17118138132449</v>
       </c>
       <c r="I28" t="n">
-        <v>68.41277017199531</v>
+        <v>71.51544803622156</v>
       </c>
       <c r="J28" t="n">
-        <v>6.321475361409796</v>
+        <v>7.738139992402253</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.25568662190651</v>
+        <v>92.74039857070716</v>
       </c>
       <c r="S28" t="n">
-        <v>136.9788932817093</v>
+        <v>140.6063517249081</v>
       </c>
       <c r="T28" t="n">
-        <v>140.9078846730185</v>
+        <v>145.0812507350334</v>
       </c>
       <c r="U28" t="n">
-        <v>199.2813246012279</v>
+        <v>203.6297432790899</v>
       </c>
       <c r="V28" t="n">
-        <v>165.099938568565</v>
+        <v>169.4506208578388</v>
       </c>
       <c r="W28" t="n">
-        <v>199.485293581328</v>
+        <v>203.8359758706018</v>
       </c>
       <c r="X28" t="n">
-        <v>138.6719506337742</v>
+        <v>143.022632923048</v>
       </c>
       <c r="Y28" t="n">
-        <v>131.5469485968318</v>
+        <v>135.8976308861056</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>237.6646292700967</v>
+        <v>300.0468191974913</v>
       </c>
       <c r="C29" t="n">
-        <v>220.2036793776237</v>
+        <v>282.5858693050184</v>
       </c>
       <c r="D29" t="n">
-        <v>209.6138292272991</v>
+        <v>271.9960191546937</v>
       </c>
       <c r="E29" t="n">
-        <v>236.8611576788779</v>
+        <v>299.2433476062726</v>
       </c>
       <c r="F29" t="n">
-        <v>261.8068333483276</v>
+        <v>324.1890232757222</v>
       </c>
       <c r="G29" t="n">
-        <v>270.2335251217512</v>
+        <v>332.5231989378422</v>
       </c>
       <c r="H29" t="n">
-        <v>194.4055897223833</v>
+        <v>255.8402990248892</v>
       </c>
       <c r="I29" t="n">
-        <v>65.40667717702203</v>
+        <v>124.2221397233818</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.799905547765803</v>
+        <v>61.37058029848097</v>
       </c>
       <c r="S29" t="n">
-        <v>63.95085719286146</v>
+        <v>124.2248362339236</v>
       </c>
       <c r="T29" t="n">
-        <v>78.02663717074748</v>
+        <v>140.0038378209103</v>
       </c>
       <c r="U29" t="n">
-        <v>106.2764405144526</v>
+        <v>168.651229152943</v>
       </c>
       <c r="V29" t="n">
-        <v>182.683046076751</v>
+        <v>245.0652360041457</v>
       </c>
       <c r="W29" t="n">
-        <v>204.1717563240291</v>
+        <v>266.5539462514238</v>
       </c>
       <c r="X29" t="n">
-        <v>224.6618882850852</v>
+        <v>287.0440782124798</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.1687262626697</v>
+        <v>303.5509161900644</v>
       </c>
     </row>
     <row r="30">
@@ -24756,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>21.46397125648346</v>
+        <v>83.84616118387814</v>
       </c>
       <c r="C30" t="n">
-        <v>27.63928659493186</v>
+        <v>90.02147652232654</v>
       </c>
       <c r="D30" t="n">
-        <v>2.375853171254874</v>
+        <v>64.75804309864955</v>
       </c>
       <c r="E30" t="n">
-        <v>12.57586806201707</v>
+        <v>74.95805798941174</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>62.38218992739468</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>54.60699421370646</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>29.07035131129679</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>5.005317422300436</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>14.39743956104837</v>
       </c>
       <c r="S30" t="n">
-        <v>26.61395871045394</v>
+        <v>88.07669886729624</v>
       </c>
       <c r="T30" t="n">
-        <v>55.09551630143773</v>
+        <v>117.2781845430856</v>
       </c>
       <c r="U30" t="n">
-        <v>80.87216968759094</v>
+        <v>143.251103004228</v>
       </c>
       <c r="V30" t="n">
-        <v>87.73137475604139</v>
+        <v>150.1135646834361</v>
       </c>
       <c r="W30" t="n">
-        <v>106.6257707675357</v>
+        <v>169.0079606949304</v>
       </c>
       <c r="X30" t="n">
-        <v>60.7037728100936</v>
+        <v>123.0859627374883</v>
       </c>
       <c r="Y30" t="n">
-        <v>60.61348338392048</v>
+        <v>122.9956733113152</v>
       </c>
     </row>
     <row r="31">
@@ -24835,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.76276778855342</v>
+        <v>97.1449577159481</v>
       </c>
       <c r="C31" t="n">
-        <v>22.17760870524396</v>
+        <v>84.55979863263863</v>
       </c>
       <c r="D31" t="n">
-        <v>3.546260624828477</v>
+        <v>65.92845055222315</v>
       </c>
       <c r="E31" t="n">
-        <v>1.364750253185292</v>
+        <v>63.74694018057997</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3518356295473666</v>
+        <v>62.73402555694204</v>
       </c>
       <c r="G31" t="n">
-        <v>22.92176696507488</v>
+        <v>85.2624573499196</v>
       </c>
       <c r="H31" t="n">
-        <v>17.1579601140557</v>
+        <v>79.17118138132449</v>
       </c>
       <c r="I31" t="n">
-        <v>10.38126253387441</v>
+        <v>71.51544803622156</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>7.738139992402253</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>32.22417898378561</v>
+        <v>92.74039857070716</v>
       </c>
       <c r="S31" t="n">
-        <v>78.94738564358838</v>
+        <v>140.6063517249081</v>
       </c>
       <c r="T31" t="n">
-        <v>82.87637703489762</v>
+        <v>145.0812507350334</v>
       </c>
       <c r="U31" t="n">
-        <v>141.249816963107</v>
+        <v>203.6297432790899</v>
       </c>
       <c r="V31" t="n">
-        <v>107.0684309304441</v>
+        <v>169.4506208578388</v>
       </c>
       <c r="W31" t="n">
-        <v>141.4537859432071</v>
+        <v>203.8359758706018</v>
       </c>
       <c r="X31" t="n">
-        <v>80.64044299565327</v>
+        <v>143.022632923048</v>
       </c>
       <c r="Y31" t="n">
-        <v>73.51544095871091</v>
+        <v>135.8976308861056</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>237.6646292700967</v>
+        <v>292.3086792050891</v>
       </c>
       <c r="C32" t="n">
-        <v>220.2036793776237</v>
+        <v>274.8477293126161</v>
       </c>
       <c r="D32" t="n">
-        <v>209.6138292272991</v>
+        <v>264.2578791622915</v>
       </c>
       <c r="E32" t="n">
-        <v>236.8611576788779</v>
+        <v>291.5052076138703</v>
       </c>
       <c r="F32" t="n">
-        <v>261.8068333483276</v>
+        <v>316.45088328332</v>
       </c>
       <c r="G32" t="n">
-        <v>270.2335251217512</v>
+        <v>324.7850589454399</v>
       </c>
       <c r="H32" t="n">
-        <v>194.4055897223833</v>
+        <v>248.1021590324869</v>
       </c>
       <c r="I32" t="n">
-        <v>65.40667717702203</v>
+        <v>116.4839997309795</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.799905547765803</v>
+        <v>53.63244030607872</v>
       </c>
       <c r="S32" t="n">
-        <v>63.95085719286146</v>
+        <v>116.4866962415214</v>
       </c>
       <c r="T32" t="n">
-        <v>78.02663717074748</v>
+        <v>132.2656978285081</v>
       </c>
       <c r="U32" t="n">
-        <v>106.2764405144526</v>
+        <v>160.9130891605407</v>
       </c>
       <c r="V32" t="n">
-        <v>182.683046076751</v>
+        <v>237.3270960117434</v>
       </c>
       <c r="W32" t="n">
-        <v>204.1717563240291</v>
+        <v>258.8158062590215</v>
       </c>
       <c r="X32" t="n">
-        <v>224.6618882850852</v>
+        <v>279.3059382200776</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.1687262626697</v>
+        <v>295.8127761976621</v>
       </c>
     </row>
     <row r="33">
@@ -24993,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>21.46397125648346</v>
+        <v>76.10802119147588</v>
       </c>
       <c r="C33" t="n">
-        <v>27.63928659493186</v>
+        <v>82.28333652992428</v>
       </c>
       <c r="D33" t="n">
-        <v>2.375853171254874</v>
+        <v>57.0199031062473</v>
       </c>
       <c r="E33" t="n">
-        <v>12.57586806201707</v>
+        <v>67.21991799700949</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>54.64404993499242</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>46.8688542213042</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>21.33221131889454</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>6.659299568646119</v>
       </c>
       <c r="S33" t="n">
-        <v>26.61395871045394</v>
+        <v>80.33855887489399</v>
       </c>
       <c r="T33" t="n">
-        <v>55.09551630143773</v>
+        <v>109.5400445506834</v>
       </c>
       <c r="U33" t="n">
-        <v>80.87216968759094</v>
+        <v>135.5129630118258</v>
       </c>
       <c r="V33" t="n">
-        <v>87.73137475604139</v>
+        <v>142.3754246910338</v>
       </c>
       <c r="W33" t="n">
-        <v>106.6257707675357</v>
+        <v>161.2698207025281</v>
       </c>
       <c r="X33" t="n">
-        <v>60.7037728100936</v>
+        <v>115.347822745086</v>
       </c>
       <c r="Y33" t="n">
-        <v>60.61348338392048</v>
+        <v>115.2575333189129</v>
       </c>
     </row>
     <row r="34">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.76276778855342</v>
+        <v>89.40681772354584</v>
       </c>
       <c r="C34" t="n">
-        <v>22.17760870524396</v>
+        <v>76.82165864023638</v>
       </c>
       <c r="D34" t="n">
-        <v>3.546260624828477</v>
+        <v>58.1903105598209</v>
       </c>
       <c r="E34" t="n">
-        <v>1.364750253185292</v>
+        <v>56.00880018817772</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3518356295473666</v>
+        <v>54.99588556453979</v>
       </c>
       <c r="G34" t="n">
-        <v>22.92176696507488</v>
+        <v>77.52431735751735</v>
       </c>
       <c r="H34" t="n">
-        <v>17.1579601140557</v>
+        <v>71.43304138892223</v>
       </c>
       <c r="I34" t="n">
-        <v>10.38126253387441</v>
+        <v>63.7773080438193</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.22417898378561</v>
+        <v>85.0022585783049</v>
       </c>
       <c r="S34" t="n">
-        <v>78.94738564358838</v>
+        <v>132.8682117325058</v>
       </c>
       <c r="T34" t="n">
-        <v>82.87637703489762</v>
+        <v>137.3431107426312</v>
       </c>
       <c r="U34" t="n">
-        <v>141.249816963107</v>
+        <v>195.8916032866876</v>
       </c>
       <c r="V34" t="n">
-        <v>107.0684309304441</v>
+        <v>161.7124808654365</v>
       </c>
       <c r="W34" t="n">
-        <v>141.4537859432071</v>
+        <v>196.0978358781995</v>
       </c>
       <c r="X34" t="n">
-        <v>80.64044299565327</v>
+        <v>135.2844929306457</v>
       </c>
       <c r="Y34" t="n">
-        <v>73.51544095871091</v>
+        <v>128.1594908937033</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.6646292700967</v>
+        <v>292.3086792050891</v>
       </c>
       <c r="C35" t="n">
-        <v>220.2036793776237</v>
+        <v>274.8477293126161</v>
       </c>
       <c r="D35" t="n">
-        <v>209.6138292272991</v>
+        <v>264.2578791622915</v>
       </c>
       <c r="E35" t="n">
-        <v>236.8611576788779</v>
+        <v>291.5052076138703</v>
       </c>
       <c r="F35" t="n">
-        <v>261.8068333483276</v>
+        <v>316.45088328332</v>
       </c>
       <c r="G35" t="n">
-        <v>270.2335251217512</v>
+        <v>324.7850589454399</v>
       </c>
       <c r="H35" t="n">
-        <v>194.4055897223833</v>
+        <v>248.1021590324869</v>
       </c>
       <c r="I35" t="n">
-        <v>65.40667717702203</v>
+        <v>116.4839997309795</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.799905547765803</v>
+        <v>53.63244030607872</v>
       </c>
       <c r="S35" t="n">
-        <v>63.95085719286146</v>
+        <v>116.4866962415214</v>
       </c>
       <c r="T35" t="n">
-        <v>78.02663717074748</v>
+        <v>132.2656978285081</v>
       </c>
       <c r="U35" t="n">
-        <v>106.2764405144526</v>
+        <v>160.9130891605407</v>
       </c>
       <c r="V35" t="n">
-        <v>182.683046076751</v>
+        <v>237.3270960117434</v>
       </c>
       <c r="W35" t="n">
-        <v>204.1717563240291</v>
+        <v>258.8158062590215</v>
       </c>
       <c r="X35" t="n">
-        <v>224.6618882850852</v>
+        <v>279.3059382200776</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.1687262626697</v>
+        <v>295.8127761976621</v>
       </c>
     </row>
     <row r="36">
@@ -25230,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>21.46397125648346</v>
+        <v>76.10802119147588</v>
       </c>
       <c r="C36" t="n">
-        <v>27.63928659493186</v>
+        <v>82.28333652992428</v>
       </c>
       <c r="D36" t="n">
-        <v>2.375853171254874</v>
+        <v>57.0199031062473</v>
       </c>
       <c r="E36" t="n">
-        <v>12.57586806201707</v>
+        <v>67.21991799700949</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>54.64404993499242</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>46.8688542213042</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>21.33221131889454</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.659299568646119</v>
       </c>
       <c r="S36" t="n">
-        <v>26.61395871045394</v>
+        <v>80.33855887489399</v>
       </c>
       <c r="T36" t="n">
-        <v>55.09551630143773</v>
+        <v>109.5400445506834</v>
       </c>
       <c r="U36" t="n">
-        <v>80.87216968759094</v>
+        <v>135.5129630118258</v>
       </c>
       <c r="V36" t="n">
-        <v>87.73137475604139</v>
+        <v>142.3754246910338</v>
       </c>
       <c r="W36" t="n">
-        <v>106.6257707675357</v>
+        <v>161.2698207025281</v>
       </c>
       <c r="X36" t="n">
-        <v>60.7037728100936</v>
+        <v>115.347822745086</v>
       </c>
       <c r="Y36" t="n">
-        <v>60.61348338392048</v>
+        <v>115.2575333189129</v>
       </c>
     </row>
     <row r="37">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.76276778855342</v>
+        <v>89.40681772354584</v>
       </c>
       <c r="C37" t="n">
-        <v>22.17760870524396</v>
+        <v>76.82165864023638</v>
       </c>
       <c r="D37" t="n">
-        <v>3.546260624828477</v>
+        <v>58.1903105598209</v>
       </c>
       <c r="E37" t="n">
-        <v>1.364750253185292</v>
+        <v>56.00880018817772</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3518356295473666</v>
+        <v>54.99588556453979</v>
       </c>
       <c r="G37" t="n">
-        <v>22.92176696507488</v>
+        <v>77.52431735751735</v>
       </c>
       <c r="H37" t="n">
-        <v>17.1579601140557</v>
+        <v>71.43304138892223</v>
       </c>
       <c r="I37" t="n">
-        <v>10.38126253387441</v>
+        <v>63.7773080438193</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>32.22417898378561</v>
+        <v>85.0022585783049</v>
       </c>
       <c r="S37" t="n">
-        <v>78.94738564358838</v>
+        <v>132.8682117325058</v>
       </c>
       <c r="T37" t="n">
-        <v>82.87637703489762</v>
+        <v>137.3431107426312</v>
       </c>
       <c r="U37" t="n">
-        <v>141.249816963107</v>
+        <v>195.8916032866876</v>
       </c>
       <c r="V37" t="n">
-        <v>107.0684309304441</v>
+        <v>161.7124808654365</v>
       </c>
       <c r="W37" t="n">
-        <v>141.4537859432071</v>
+        <v>196.0978358781995</v>
       </c>
       <c r="X37" t="n">
-        <v>80.64044299565327</v>
+        <v>135.2844929306457</v>
       </c>
       <c r="Y37" t="n">
-        <v>73.51544095871091</v>
+        <v>128.1594908937033</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.6646292700967</v>
+        <v>292.3086792050891</v>
       </c>
       <c r="C38" t="n">
-        <v>220.2036793776237</v>
+        <v>274.8477293126161</v>
       </c>
       <c r="D38" t="n">
-        <v>209.6138292272991</v>
+        <v>264.2578791622915</v>
       </c>
       <c r="E38" t="n">
-        <v>236.8611576788779</v>
+        <v>291.5052076138703</v>
       </c>
       <c r="F38" t="n">
-        <v>261.8068333483276</v>
+        <v>316.45088328332</v>
       </c>
       <c r="G38" t="n">
-        <v>270.2335251217512</v>
+        <v>324.7850589454399</v>
       </c>
       <c r="H38" t="n">
-        <v>194.4055897223833</v>
+        <v>248.1021590324869</v>
       </c>
       <c r="I38" t="n">
-        <v>65.40667717702203</v>
+        <v>116.4839997309795</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.799905547765803</v>
+        <v>53.63244030607872</v>
       </c>
       <c r="S38" t="n">
-        <v>63.95085719286146</v>
+        <v>116.4866962415214</v>
       </c>
       <c r="T38" t="n">
-        <v>78.02663717074748</v>
+        <v>132.2656978285081</v>
       </c>
       <c r="U38" t="n">
-        <v>106.2764405144526</v>
+        <v>160.9130891605407</v>
       </c>
       <c r="V38" t="n">
-        <v>182.683046076751</v>
+        <v>237.3270960117434</v>
       </c>
       <c r="W38" t="n">
-        <v>204.1717563240291</v>
+        <v>258.8158062590215</v>
       </c>
       <c r="X38" t="n">
-        <v>224.6618882850852</v>
+        <v>279.3059382200776</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.1687262626697</v>
+        <v>295.8127761976621</v>
       </c>
     </row>
     <row r="39">
@@ -25467,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>21.46397125648346</v>
+        <v>76.10802119147588</v>
       </c>
       <c r="C39" t="n">
-        <v>27.63928659493186</v>
+        <v>82.28333652992428</v>
       </c>
       <c r="D39" t="n">
-        <v>2.375853171254874</v>
+        <v>57.0199031062473</v>
       </c>
       <c r="E39" t="n">
-        <v>12.57586806201707</v>
+        <v>67.21991799700949</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>54.64404993499242</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>46.8688542213042</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>21.33221131889454</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>6.659299568646119</v>
       </c>
       <c r="S39" t="n">
-        <v>26.61395871045394</v>
+        <v>80.33855887489399</v>
       </c>
       <c r="T39" t="n">
-        <v>55.09551630143773</v>
+        <v>109.5400445506834</v>
       </c>
       <c r="U39" t="n">
-        <v>80.87216968759094</v>
+        <v>135.5129630118258</v>
       </c>
       <c r="V39" t="n">
-        <v>87.73137475604139</v>
+        <v>142.3754246910338</v>
       </c>
       <c r="W39" t="n">
-        <v>106.6257707675357</v>
+        <v>161.2698207025281</v>
       </c>
       <c r="X39" t="n">
-        <v>60.7037728100936</v>
+        <v>115.347822745086</v>
       </c>
       <c r="Y39" t="n">
-        <v>60.61348338392048</v>
+        <v>115.2575333189129</v>
       </c>
     </row>
     <row r="40">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.76276778855342</v>
+        <v>89.40681772354584</v>
       </c>
       <c r="C40" t="n">
-        <v>22.17760870524396</v>
+        <v>76.82165864023638</v>
       </c>
       <c r="D40" t="n">
-        <v>3.546260624828477</v>
+        <v>58.1903105598209</v>
       </c>
       <c r="E40" t="n">
-        <v>1.364750253185292</v>
+        <v>56.00880018817772</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3518356295473666</v>
+        <v>54.99588556453979</v>
       </c>
       <c r="G40" t="n">
-        <v>22.92176696507488</v>
+        <v>77.52431735751736</v>
       </c>
       <c r="H40" t="n">
-        <v>17.1579601140557</v>
+        <v>71.43304138892222</v>
       </c>
       <c r="I40" t="n">
-        <v>10.38126253387441</v>
+        <v>63.7773080438193</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>32.22417898378561</v>
+        <v>85.0022585783049</v>
       </c>
       <c r="S40" t="n">
-        <v>78.94738564358838</v>
+        <v>132.8682117325058</v>
       </c>
       <c r="T40" t="n">
-        <v>82.87637703489762</v>
+        <v>137.3431107426312</v>
       </c>
       <c r="U40" t="n">
-        <v>141.249816963107</v>
+        <v>195.8916032866876</v>
       </c>
       <c r="V40" t="n">
-        <v>107.0684309304441</v>
+        <v>161.7124808654365</v>
       </c>
       <c r="W40" t="n">
-        <v>141.4537859432071</v>
+        <v>196.0978358781995</v>
       </c>
       <c r="X40" t="n">
-        <v>80.64044299565327</v>
+        <v>135.2844929306457</v>
       </c>
       <c r="Y40" t="n">
-        <v>73.51544095871091</v>
+        <v>128.1594908937033</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>245.3903245002699</v>
+        <v>367.6716431274892</v>
       </c>
       <c r="C41" t="n">
-        <v>227.9293746077969</v>
+        <v>350.2106932350162</v>
       </c>
       <c r="D41" t="n">
-        <v>217.3395244574723</v>
+        <v>339.6208430846916</v>
       </c>
       <c r="E41" t="n">
-        <v>244.5868529090511</v>
+        <v>366.8681715362704</v>
       </c>
       <c r="F41" t="n">
-        <v>269.5325285785008</v>
+        <v>391.8138472057201</v>
       </c>
       <c r="G41" t="n">
-        <v>277.9592203519244</v>
+        <v>400.14802286784</v>
       </c>
       <c r="H41" t="n">
-        <v>202.1312849525565</v>
+        <v>323.465122954887</v>
       </c>
       <c r="I41" t="n">
-        <v>73.13237240719528</v>
+        <v>191.8469636533796</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>12.52560077793905</v>
+        <v>128.9954042284788</v>
       </c>
       <c r="S41" t="n">
-        <v>71.67655242303471</v>
+        <v>191.8496601639215</v>
       </c>
       <c r="T41" t="n">
-        <v>85.75233240092072</v>
+        <v>207.6286617509082</v>
       </c>
       <c r="U41" t="n">
-        <v>114.0021357446259</v>
+        <v>236.2760530829408</v>
       </c>
       <c r="V41" t="n">
-        <v>190.4087413069243</v>
+        <v>312.6900599341436</v>
       </c>
       <c r="W41" t="n">
-        <v>211.8974515542024</v>
+        <v>334.1787701814217</v>
       </c>
       <c r="X41" t="n">
-        <v>232.3875835152584</v>
+        <v>354.6689021424777</v>
       </c>
       <c r="Y41" t="n">
-        <v>248.894421492843</v>
+        <v>371.1757401200622</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29.18966648665671</v>
+        <v>151.470985113876</v>
       </c>
       <c r="C42" t="n">
-        <v>35.3649818251051</v>
+        <v>157.6463004523244</v>
       </c>
       <c r="D42" t="n">
-        <v>10.10154840142812</v>
+        <v>132.3828670286474</v>
       </c>
       <c r="E42" t="n">
-        <v>20.30156329219031</v>
+        <v>142.5828819194096</v>
       </c>
       <c r="F42" t="n">
-        <v>7.725695230173244</v>
+        <v>130.0070138573926</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>122.2318181437043</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>96.69517524129466</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>72.63014135229831</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.02226349104625</v>
       </c>
       <c r="S42" t="n">
-        <v>34.33965394062719</v>
+        <v>155.7015227972941</v>
       </c>
       <c r="T42" t="n">
-        <v>62.82121153161097</v>
+        <v>184.9030084730835</v>
       </c>
       <c r="U42" t="n">
-        <v>88.59786491776418</v>
+        <v>210.8759269342259</v>
       </c>
       <c r="V42" t="n">
-        <v>95.45706998621463</v>
+        <v>217.7383886134339</v>
       </c>
       <c r="W42" t="n">
-        <v>114.351465997709</v>
+        <v>236.6327846249283</v>
       </c>
       <c r="X42" t="n">
-        <v>68.42946804026684</v>
+        <v>190.7107866674862</v>
       </c>
       <c r="Y42" t="n">
-        <v>68.33917861409373</v>
+        <v>190.620497241313</v>
       </c>
     </row>
     <row r="43">
@@ -25783,34 +25785,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>42.48846301872666</v>
+        <v>164.769781645946</v>
       </c>
       <c r="C43" t="n">
-        <v>29.9033039354172</v>
+        <v>152.1846225626365</v>
       </c>
       <c r="D43" t="n">
-        <v>11.27195585500172</v>
+        <v>133.553274482221</v>
       </c>
       <c r="E43" t="n">
-        <v>9.090445483358536</v>
+        <v>131.3717641105778</v>
       </c>
       <c r="F43" t="n">
-        <v>8.077530859720611</v>
+        <v>130.3588494869399</v>
       </c>
       <c r="G43" t="n">
-        <v>30.64746219524812</v>
+        <v>152.8872812799175</v>
       </c>
       <c r="H43" t="n">
-        <v>24.88365534422894</v>
+        <v>146.7960053113223</v>
       </c>
       <c r="I43" t="n">
-        <v>18.10695776404765</v>
+        <v>139.1402719662194</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>75.36296392240013</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>2.385800982724845</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25828,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>67.62482392999787</v>
       </c>
       <c r="R43" t="n">
-        <v>39.94987421395885</v>
+        <v>160.365222500705</v>
       </c>
       <c r="S43" t="n">
-        <v>86.67308087376162</v>
+        <v>208.2311756549059</v>
       </c>
       <c r="T43" t="n">
-        <v>90.60207226507086</v>
+        <v>212.7060746650313</v>
       </c>
       <c r="U43" t="n">
-        <v>148.9755121932803</v>
+        <v>271.2545672090877</v>
       </c>
       <c r="V43" t="n">
-        <v>114.7941261606174</v>
+        <v>237.0754447878367</v>
       </c>
       <c r="W43" t="n">
-        <v>149.1794811733804</v>
+        <v>271.4607998005997</v>
       </c>
       <c r="X43" t="n">
-        <v>88.36613822582652</v>
+        <v>210.6474568530458</v>
       </c>
       <c r="Y43" t="n">
-        <v>81.24113618888416</v>
+        <v>203.5224548161034</v>
       </c>
     </row>
     <row r="44">
@@ -25862,31 +25864,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>367.6716431274892</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>350.2106932350162</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>339.6208430846916</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>366.8681715362704</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>391.8138472057201</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>400.14802286784</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>323.465122954887</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>191.8469636533796</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,31 +25909,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>128.9954042284788</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>191.8496601639215</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>207.6286617509082</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>236.2760530829408</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>312.6900599341436</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>334.1787701814217</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>354.6689021424777</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>371.1757401200622</v>
       </c>
     </row>
     <row r="45">
@@ -25941,31 +25943,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>151.470985113876</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>157.6463004523244</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>132.3828670286474</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>142.5828819194096</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>130.0070138573925</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>122.2318181437043</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>96.69517524129465</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>72.6301413522983</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>82.02226349104623</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>155.7015227972941</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>184.9030084730835</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>210.8759269342259</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>217.7383886134339</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>236.6327846249283</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>190.7107866674861</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>190.620497241313</v>
       </c>
     </row>
     <row r="46">
@@ -26020,34 +26022,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>164.769781645946</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>152.1846225626365</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>133.553274482221</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>131.3717641105778</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>130.3588494869399</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>152.8872812799175</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>146.7960053113223</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>139.1402719662194</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>75.36296392240011</v>
       </c>
       <c r="K46" t="n">
-        <v>22.26949182588285</v>
+        <v>2.385800982724831</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26062,34 +26064,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>67.62482392999786</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>160.365222500705</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>208.2311756549059</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>212.7060746650313</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>271.2545672090877</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>237.0754447878367</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>271.4607998005997</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>210.6474568530458</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>203.5224548161034</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>333186.227432274</v>
+        <v>476353.1332427879</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>498671.5400756703</v>
+        <v>476353.1332427879</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>498671.5400756703</v>
+        <v>491391.2888396994</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498671.5400756703</v>
+        <v>491391.2888396994</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498671.5400756703</v>
+        <v>491391.2888396994</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490018.9973183527</v>
+        <v>476353.1332427879</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>603531.7289878631</v>
+        <v>476353.1332427879</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>603531.7289878631</v>
+        <v>492231.0046097474</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>603531.7289878631</v>
+        <v>492231.0046097474</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>603531.7289878631</v>
+        <v>492231.0046097474</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>588886.9011095468</v>
+        <v>335237.6487041751</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>306396.1057646222</v>
+        <v>335237.6487041751</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>716866.7963774084</v>
+      </c>
+      <c r="C2" t="n">
+        <v>716866.7963774089</v>
+      </c>
+      <c r="D2" t="n">
         <v>716866.7963774086</v>
       </c>
-      <c r="C2" t="n">
-        <v>716866.7963774088</v>
-      </c>
-      <c r="D2" t="n">
-        <v>716866.7963774088</v>
-      </c>
       <c r="E2" t="n">
-        <v>214928.0813476831</v>
+        <v>364070.9280329869</v>
       </c>
       <c r="F2" t="n">
-        <v>380413.3939910795</v>
+        <v>364070.9280329868</v>
       </c>
       <c r="G2" t="n">
-        <v>380413.3939910796</v>
+        <v>379109.0836298985</v>
       </c>
       <c r="H2" t="n">
-        <v>380413.3939910795</v>
+        <v>379109.0836298984</v>
       </c>
       <c r="I2" t="n">
-        <v>380413.3939910792</v>
+        <v>379109.0836298987</v>
       </c>
       <c r="J2" t="n">
-        <v>371760.8512337616</v>
+        <v>364070.9280329869</v>
       </c>
       <c r="K2" t="n">
-        <v>485273.5829032719</v>
+        <v>364070.9280329868</v>
       </c>
       <c r="L2" t="n">
-        <v>485273.5829032719</v>
+        <v>379948.7993999469</v>
       </c>
       <c r="M2" t="n">
-        <v>485273.582903272</v>
+        <v>379948.7993999469</v>
       </c>
       <c r="N2" t="n">
-        <v>485273.5829032719</v>
+        <v>379948.7993999467</v>
       </c>
       <c r="O2" t="n">
-        <v>470628.7550249555</v>
+        <v>222955.4434943738</v>
       </c>
       <c r="P2" t="n">
-        <v>188137.9596800312</v>
+        <v>222955.4434943738</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>9559.431483690014</v>
+        <v>84638.63866350596</v>
       </c>
       <c r="F3" t="n">
-        <v>63449.60762007179</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5859.246834871272</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6180.556184138595</v>
+        <v>60290.3711379201</v>
       </c>
       <c r="K3" t="n">
-        <v>109874.8137305685</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>12049.75882879307</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>135733.4825398612</v>
+        <v>225220.3103677904</v>
       </c>
       <c r="F4" t="n">
-        <v>243680.4173363842</v>
+        <v>225220.3103677904</v>
       </c>
       <c r="G4" t="n">
-        <v>243680.4173363842</v>
+        <v>235029.7779014916</v>
       </c>
       <c r="H4" t="n">
-        <v>243680.4173363842</v>
+        <v>235029.7779014916</v>
       </c>
       <c r="I4" t="n">
-        <v>243680.4173363842</v>
+        <v>235029.7779014916</v>
       </c>
       <c r="J4" t="n">
-        <v>238036.3184497294</v>
+        <v>225220.3103677904</v>
       </c>
       <c r="K4" t="n">
-        <v>312081.2669008861</v>
+        <v>225220.3103677904</v>
       </c>
       <c r="L4" t="n">
-        <v>312081.2669008861</v>
+        <v>235577.5288893532</v>
       </c>
       <c r="M4" t="n">
-        <v>312081.2669008861</v>
+        <v>235577.5288893532</v>
       </c>
       <c r="N4" t="n">
-        <v>312081.2669008861</v>
+        <v>235577.5288893532</v>
       </c>
       <c r="O4" t="n">
-        <v>302528.369094822</v>
+        <v>133169.9418792292</v>
       </c>
       <c r="P4" t="n">
-        <v>118258.146084591</v>
+        <v>133169.9418792293</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>1004.56480675292</v>
+        <v>7453.107034265254</v>
       </c>
       <c r="F5" t="n">
-        <v>7672.246135517689</v>
+        <v>7453.107034265254</v>
       </c>
       <c r="G5" t="n">
-        <v>7672.246135517689</v>
+        <v>8068.833311966245</v>
       </c>
       <c r="H5" t="n">
-        <v>7672.246135517689</v>
+        <v>8068.833311966245</v>
       </c>
       <c r="I5" t="n">
-        <v>7672.246135517689</v>
+        <v>8068.833311966245</v>
       </c>
       <c r="J5" t="n">
-        <v>7317.172801070204</v>
+        <v>7453.107034265254</v>
       </c>
       <c r="K5" t="n">
-        <v>12195.82361669939</v>
+        <v>7453.107034265254</v>
       </c>
       <c r="L5" t="n">
-        <v>12195.82361669939</v>
+        <v>8103.644725286519</v>
       </c>
       <c r="M5" t="n">
-        <v>12195.82361669939</v>
+        <v>8103.644725286519</v>
       </c>
       <c r="N5" t="n">
-        <v>12195.82361669939</v>
+        <v>8103.644725286519</v>
       </c>
       <c r="O5" t="n">
-        <v>11546.33214439395</v>
+        <v>1767.955711294262</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1767.955711294263</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>220088.4652752987</v>
+      </c>
+      <c r="C6" t="n">
+        <v>220088.4652752991</v>
+      </c>
+      <c r="D6" t="n">
         <v>220088.4652752988</v>
       </c>
-      <c r="C6" t="n">
-        <v>220088.465275299</v>
-      </c>
-      <c r="D6" t="n">
-        <v>220088.465275299</v>
-      </c>
       <c r="E6" t="n">
-        <v>68630.60251737895</v>
+        <v>46758.87196742526</v>
       </c>
       <c r="F6" t="n">
-        <v>65611.12289910589</v>
+        <v>131397.5106309312</v>
       </c>
       <c r="G6" t="n">
-        <v>129060.7305191777</v>
+        <v>130151.2255815694</v>
       </c>
       <c r="H6" t="n">
-        <v>129060.7305191777</v>
+        <v>136010.4724164405</v>
       </c>
       <c r="I6" t="n">
-        <v>129060.7305191774</v>
+        <v>136010.4724164408</v>
       </c>
       <c r="J6" t="n">
-        <v>120226.8037988234</v>
+        <v>71107.13949301113</v>
       </c>
       <c r="K6" t="n">
-        <v>51121.67865511792</v>
+        <v>131397.5106309312</v>
       </c>
       <c r="L6" t="n">
-        <v>160996.4923856864</v>
+        <v>124217.8669565141</v>
       </c>
       <c r="M6" t="n">
-        <v>160996.4923856865</v>
+        <v>136267.6257853072</v>
       </c>
       <c r="N6" t="n">
-        <v>160996.4923856864</v>
+        <v>136267.625785307</v>
       </c>
       <c r="O6" t="n">
-        <v>156554.0537857396</v>
+        <v>88017.54590385029</v>
       </c>
       <c r="P6" t="n">
-        <v>69879.81359544014</v>
+        <v>88017.54590385026</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="F2" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="G2" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="H2" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="I2" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="J2" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="K2" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="L2" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="M2" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="N2" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="O2" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>23.01338268678932</v>
       </c>
     </row>
     <row r="4">
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="F2" t="n">
-        <v>79.31200952508974</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.324058543589089</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.725695230173244</v>
+        <v>75.36296392240013</v>
       </c>
       <c r="K2" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27151,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="K2" t="n">
-        <v>79.31200952508974</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7.324058543589089</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.725695230173244</v>
+        <v>75.36296392240013</v>
       </c>
       <c r="P2" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,31 +28089,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="C11" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="D11" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="E11" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="F11" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="G11" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="H11" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="I11" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -28132,31 +28134,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="S11" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="T11" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="U11" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="V11" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="W11" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="X11" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
     </row>
     <row r="12">
@@ -28166,31 +28168,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="C12" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="D12" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="E12" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="F12" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="G12" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="H12" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="I12" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28214,28 +28216,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="S12" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="T12" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="U12" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="V12" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="W12" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="X12" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
     </row>
     <row r="13">
@@ -28245,34 +28247,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="C13" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="D13" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="E13" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="F13" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="G13" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="H13" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="I13" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="K13" t="n">
-        <v>11.94928935461252</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28287,34 +28289,34 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R13" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="S13" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="T13" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="U13" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="V13" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="W13" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="X13" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.94928935461252</v>
+        <v>82.6870224659892</v>
       </c>
     </row>
     <row r="14">
@@ -28324,31 +28326,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="C14" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="D14" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="E14" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="F14" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="G14" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="H14" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="I14" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28369,31 +28371,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="S14" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="T14" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="U14" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="V14" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="W14" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="X14" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
     </row>
     <row r="15">
@@ -28403,31 +28405,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="C15" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="D15" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="E15" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="F15" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="G15" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="H15" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28451,28 +28453,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="S15" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="T15" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="U15" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="V15" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="W15" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="X15" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="Y15" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
     </row>
     <row r="16">
@@ -28482,34 +28484,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="C16" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="D16" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="E16" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="F16" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="G16" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="H16" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="I16" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="J16" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28524,34 +28526,34 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R16" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="S16" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="T16" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="U16" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="V16" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="W16" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="X16" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.26129887970225</v>
+        <v>82.6870224659892</v>
       </c>
     </row>
     <row r="17">
@@ -28561,31 +28563,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="C17" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="D17" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="E17" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="F17" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="G17" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="H17" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="I17" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -28606,31 +28608,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="S17" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="T17" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="U17" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="V17" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="W17" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="X17" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="Y17" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
     </row>
     <row r="18">
@@ -28640,31 +28642,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="C18" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="D18" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="E18" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="F18" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="G18" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="H18" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28688,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="S18" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="T18" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="U18" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="V18" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="W18" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="X18" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="Y18" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
     </row>
     <row r="19">
@@ -28719,34 +28721,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="C19" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="D19" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="E19" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="F19" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="G19" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="H19" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="I19" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="J19" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="K19" t="n">
-        <v>22.26949182588285</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28761,34 +28763,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R19" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="S19" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="T19" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="U19" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="V19" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="W19" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="X19" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="Y19" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
     </row>
     <row r="20">
@@ -28798,31 +28800,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="C20" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="D20" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="E20" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="F20" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="G20" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="H20" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="I20" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28843,31 +28845,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="S20" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="T20" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="U20" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="V20" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="W20" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="X20" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="Y20" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
     </row>
     <row r="21">
@@ -28877,31 +28879,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="C21" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="D21" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="E21" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="F21" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="G21" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="H21" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28925,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="S21" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="T21" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="U21" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="V21" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="W21" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="X21" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="Y21" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
     </row>
     <row r="22">
@@ -28956,34 +28958,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="C22" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="D22" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="E22" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="F22" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="G22" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="H22" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="I22" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="J22" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28998,34 +29000,34 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R22" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="S22" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="T22" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="U22" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="V22" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="W22" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="X22" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="Y22" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29037,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="C23" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="D23" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="E23" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="F23" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="G23" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="H23" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="I23" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29080,31 +29082,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="S23" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="T23" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="U23" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="V23" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="W23" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="X23" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="Y23" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
     </row>
     <row r="24">
@@ -29114,31 +29116,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="C24" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="D24" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="E24" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="F24" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="G24" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="H24" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29162,28 +29164,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="S24" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="T24" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="U24" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="V24" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="W24" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="X24" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="Y24" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
     </row>
     <row r="25">
@@ -29193,34 +29195,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="C25" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="D25" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="E25" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="F25" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="G25" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="H25" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="I25" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="J25" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29235,34 +29237,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R25" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="S25" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="T25" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="U25" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="V25" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="W25" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="X25" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
       <c r="Y25" t="n">
-        <v>91.26129887970225</v>
+        <v>90.01108100957829</v>
       </c>
     </row>
     <row r="26">
@@ -29272,31 +29274,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="C26" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="D26" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="E26" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="F26" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="G26" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="H26" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="I26" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -29317,31 +29319,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="S26" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="T26" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="U26" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="V26" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="W26" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="X26" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="Y26" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
     </row>
     <row r="27">
@@ -29351,31 +29353,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="C27" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="D27" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="E27" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="F27" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="G27" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="H27" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="I27" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29399,28 +29401,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="S27" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="T27" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="U27" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="V27" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="W27" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="X27" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="Y27" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
     </row>
     <row r="28">
@@ -29430,34 +29432,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="C28" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="D28" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="E28" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="F28" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="G28" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="H28" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="I28" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="J28" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29472,34 +29474,34 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R28" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="S28" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="T28" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="U28" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="V28" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="W28" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="X28" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="Y28" t="n">
-        <v>87.03770475526298</v>
+        <v>82.6870224659892</v>
       </c>
     </row>
     <row r="29">
@@ -29509,31 +29511,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="C29" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="D29" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="E29" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="F29" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="G29" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="H29" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="I29" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29554,31 +29556,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="S29" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="T29" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="U29" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="V29" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="W29" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="X29" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
     </row>
     <row r="30">
@@ -29588,31 +29590,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="C30" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="D30" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="E30" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29636,28 +29638,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="S30" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="T30" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="U30" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="V30" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="W30" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="X30" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="Y30" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
     </row>
     <row r="31">
@@ -29667,34 +29669,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="C31" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="D31" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="E31" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="F31" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="G31" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="H31" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="I31" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29709,34 +29711,34 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R31" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="S31" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="T31" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="U31" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="V31" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="W31" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="X31" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="Y31" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6870224659892</v>
       </c>
     </row>
     <row r="32">
@@ -29746,31 +29748,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="C32" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="D32" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="E32" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="F32" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="G32" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="H32" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="I32" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29791,31 +29793,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="S32" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="T32" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="U32" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="V32" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="W32" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="X32" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
     </row>
     <row r="33">
@@ -29825,31 +29827,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="C33" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="D33" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="E33" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29873,28 +29875,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="S33" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="T33" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="U33" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="V33" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="W33" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="X33" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="Y33" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
     </row>
     <row r="34">
@@ -29904,34 +29906,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="C34" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="D34" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="E34" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="F34" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="G34" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="H34" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="I34" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29946,34 +29948,34 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R34" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="S34" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="T34" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="U34" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="V34" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="W34" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="X34" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="Y34" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
     </row>
     <row r="35">
@@ -29983,31 +29985,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="C35" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="D35" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="E35" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="F35" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="G35" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="H35" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="I35" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30028,31 +30030,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="S35" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="T35" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="U35" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="V35" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="W35" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="X35" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
     </row>
     <row r="36">
@@ -30062,31 +30064,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="C36" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="D36" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="E36" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30110,28 +30112,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="S36" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="T36" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="U36" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="V36" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="W36" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="X36" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="Y36" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
     </row>
     <row r="37">
@@ -30141,34 +30143,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="C37" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="D37" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="E37" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="F37" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="G37" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="H37" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="I37" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30183,34 +30185,34 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R37" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="S37" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="T37" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="U37" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="V37" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="W37" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="X37" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
     </row>
     <row r="38">
@@ -30220,31 +30222,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="C38" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="D38" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="E38" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="F38" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="G38" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="H38" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="I38" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30265,31 +30267,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="S38" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="T38" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="U38" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="V38" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="W38" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="X38" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
     </row>
     <row r="39">
@@ -30299,31 +30301,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="C39" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="D39" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="E39" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30347,28 +30349,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="S39" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="T39" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="U39" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="V39" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="W39" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="X39" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="Y39" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
     </row>
     <row r="40">
@@ -30378,34 +30380,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="C40" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="D40" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="E40" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="F40" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="G40" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="H40" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="I40" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K40" t="n">
-        <v>22.26949182588285</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30420,34 +30422,34 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R40" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="S40" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="T40" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="U40" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="V40" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="W40" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="X40" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="Y40" t="n">
-        <v>145.0692123933839</v>
+        <v>90.42516245839145</v>
       </c>
     </row>
     <row r="41">
@@ -30457,31 +30459,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="C41" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="D41" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="E41" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="F41" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="G41" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="H41" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="I41" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30502,31 +30504,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="S41" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="T41" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="U41" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="V41" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="W41" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="X41" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="Y41" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
     </row>
     <row r="42">
@@ -30536,31 +30538,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="C42" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="D42" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="E42" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="F42" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30584,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="S42" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="T42" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="U42" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="V42" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="W42" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="X42" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="Y42" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
     </row>
     <row r="43">
@@ -30615,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="C43" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="D43" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="E43" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="F43" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="G43" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="H43" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="I43" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30657,34 +30659,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="R43" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="S43" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="T43" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="U43" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="V43" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="W43" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="X43" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
       <c r="Y43" t="n">
-        <v>137.3435171632106</v>
+        <v>15.06219853599133</v>
       </c>
     </row>
     <row r="44">
@@ -30694,31 +30696,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30742,28 +30744,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
     </row>
     <row r="45">
@@ -30773,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
     </row>
     <row r="46">
@@ -30852,34 +30854,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30897,31 +30899,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>15.06219853599134</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.09251611130367558</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.9474806248887679</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>7.852189301760344</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>5.811515176679516</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.108210886332509</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.0495004835149808</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>9.452421277522957</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.1773162272588684</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1232868.832947769</v>
+        <v>1178137.078858576</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5739672.253402798</v>
+        <v>5413711.842050619</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12703441.69178931</v>
+        <v>11739719.61562466</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6443968.924099143</v>
+        <v>6727477.708468267</v>
       </c>
     </row>
     <row r="11">
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>208.3214547517356</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>221.1666787354324</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>214.1012135983212</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>212.9051825663978</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>214.5102874732696</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>217.9290633046618</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>129.8481964236088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>127.8064787429921</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>129.5917403577182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>118.4674613291454</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>130.8188201934042</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>124.5219861368073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8853,19 +8853,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>128.7148261097669</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M13" t="n">
-        <v>132.4205420186164</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N13" t="n">
-        <v>121.3349826493852</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O13" t="n">
-        <v>132.590766746692</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P13" t="n">
-        <v>132.7088230120157</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>208.3214547517356</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>221.1666787354324</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>214.1012135983212</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>212.9051825663978</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>214.5102874732696</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>217.9290633046618</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>129.8481964236088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>127.8064787429921</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>129.5917403577182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>118.4674613291454</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>130.8188201934042</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>124.5219861368073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9090,19 +9090,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>128.7148261097669</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M16" t="n">
-        <v>132.4205420186164</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N16" t="n">
-        <v>121.3349826493852</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O16" t="n">
-        <v>132.590766746692</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P16" t="n">
-        <v>132.7088230120157</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9166,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>208.3214547517356</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>221.1666787354324</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>214.1012135983212</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>212.9051825663978</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>214.5102874732696</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
-        <v>217.9290633046618</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>129.8481964236088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>127.8064787429921</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>129.5917403577182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>118.4674613291454</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>130.8188201934042</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>124.5219861368073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9327,19 +9327,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>128.7148261097669</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M19" t="n">
-        <v>132.4205420186164</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N19" t="n">
-        <v>121.3349826493852</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O19" t="n">
-        <v>132.590766746692</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P19" t="n">
-        <v>132.7088230120157</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9403,22 +9403,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>208.3214547517356</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>221.1666787354324</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M20" t="n">
-        <v>214.1012135983212</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
-        <v>212.9051825663978</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>214.5102874732696</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P20" t="n">
-        <v>217.9290633046618</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>129.8481964236088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>127.8064787429921</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>129.5917403577182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>118.4674613291454</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>130.8188201934042</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>124.5219861368073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9564,19 +9564,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>128.7148261097669</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M22" t="n">
-        <v>132.4205420186164</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N22" t="n">
-        <v>121.3349826493852</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O22" t="n">
-        <v>132.590766746692</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P22" t="n">
-        <v>132.7088230120157</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9640,22 +9640,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>208.3214547517356</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>221.1666787354324</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M23" t="n">
-        <v>214.1012135983212</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
-        <v>212.9051825663978</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>214.5102874732696</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P23" t="n">
-        <v>217.9290633046618</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>129.8481964236088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>127.8064787429921</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>129.5917403577182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>118.4674613291454</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>130.8188201934042</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>124.5219861368073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9801,19 +9801,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>128.7148261097669</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M25" t="n">
-        <v>132.4205420186164</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N25" t="n">
-        <v>121.3349826493852</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O25" t="n">
-        <v>132.590766746692</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P25" t="n">
-        <v>132.7088230120157</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9877,22 +9877,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>208.3214547517356</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
-        <v>221.1666787354324</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M26" t="n">
-        <v>214.1012135983212</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N26" t="n">
-        <v>212.9051825663978</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>214.5102874732696</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P26" t="n">
-        <v>217.9290633046618</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>129.8481964236088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>127.8064787429921</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>129.5917403577182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>118.4674613291454</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>130.8188201934042</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>124.5219861368073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10038,19 +10038,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>128.7148261097669</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M28" t="n">
-        <v>132.4205420186164</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N28" t="n">
-        <v>121.3349826493852</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O28" t="n">
-        <v>132.590766746692</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P28" t="n">
-        <v>132.7088230120157</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10114,22 +10114,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>208.3214547517356</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>221.1666787354324</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M29" t="n">
-        <v>214.1012135983212</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
-        <v>212.9051825663978</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>214.5102874732696</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P29" t="n">
-        <v>217.9290633046618</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>129.8481964236088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>127.8064787429921</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>129.5917403577182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>118.4674613291454</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>130.8188201934042</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>124.5219861368073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10275,19 +10275,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>128.7148261097669</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M31" t="n">
-        <v>132.4205420186164</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N31" t="n">
-        <v>121.3349826493852</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O31" t="n">
-        <v>132.590766746692</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P31" t="n">
-        <v>132.7088230120157</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10351,22 +10351,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>208.3214547517356</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>221.1666787354324</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M32" t="n">
-        <v>214.1012135983212</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
-        <v>212.9051825663978</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>214.5102874732696</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P32" t="n">
-        <v>217.9290633046618</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>129.8481964236088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>127.8064787429921</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>129.5917403577182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>118.4674613291454</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>130.8188201934042</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>124.5219861368073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10512,19 +10512,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>128.7148261097669</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M34" t="n">
-        <v>132.4205420186164</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N34" t="n">
-        <v>121.3349826493852</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O34" t="n">
-        <v>132.590766746692</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
-        <v>132.7088230120157</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10588,22 +10588,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>208.3214547517356</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
-        <v>221.1666787354324</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M35" t="n">
-        <v>214.1012135983212</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
-        <v>212.9051825663978</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>214.5102874732696</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
-        <v>217.9290633046618</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>129.8481964236088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>127.8064787429921</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>129.5917403577182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>118.4674613291454</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>130.8188201934042</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>124.5219861368073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10749,19 +10749,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>128.7148261097669</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M37" t="n">
-        <v>132.4205420186164</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N37" t="n">
-        <v>121.3349826493852</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O37" t="n">
-        <v>132.590766746692</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P37" t="n">
-        <v>132.7088230120157</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10825,22 +10825,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>208.3214547517356</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
-        <v>221.1666787354324</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M38" t="n">
-        <v>214.1012135983212</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
-        <v>212.9051825663978</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>214.5102874732696</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P38" t="n">
-        <v>217.9290633046618</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>129.8481964236088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>127.8064787429921</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>129.5917403577182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>118.4674613291454</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>130.8188201934042</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>124.5219861368073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10986,19 +10986,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>128.7148261097669</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M40" t="n">
-        <v>132.4205420186164</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N40" t="n">
-        <v>121.3349826493852</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O40" t="n">
-        <v>132.590766746692</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P40" t="n">
-        <v>132.7088230120157</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11062,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>208.3214547517356</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>221.1666787354324</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>214.1012135983212</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
-        <v>212.9051825663978</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>214.5102874732696</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
-        <v>217.9290633046618</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>129.8481964236088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>127.8064787429921</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>129.5917403577182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>118.4674613291454</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>130.8188201934042</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>124.5219861368073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11223,19 +11223,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>128.7148261097669</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M43" t="n">
-        <v>132.4205420186164</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N43" t="n">
-        <v>121.3349826493852</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O43" t="n">
-        <v>132.590766746692</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P43" t="n">
-        <v>132.7088230120157</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11299,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>208.3214547517356</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>221.1666787354324</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>214.1012135983212</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
-        <v>212.9051825663978</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>214.5102874732696</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
-        <v>217.9290633046618</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>129.8481964236088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>127.8064787429921</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>129.5917403577182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>118.4674613291454</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>130.8188201934042</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>124.5219861368073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11460,19 +11460,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>128.7148261097669</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M46" t="n">
-        <v>132.4205420186164</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N46" t="n">
-        <v>121.3349826493852</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O46" t="n">
-        <v>132.590766746692</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P46" t="n">
-        <v>132.7088230120157</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>300.0468191974913</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C11" t="n">
-        <v>282.5858693050184</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D11" t="n">
-        <v>271.9960191546937</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E11" t="n">
-        <v>299.2433476062726</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F11" t="n">
-        <v>324.1890232757222</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G11" t="n">
-        <v>332.5231989378422</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H11" t="n">
-        <v>255.8402990248892</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I11" t="n">
-        <v>124.2221397233818</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>61.37058029848097</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S11" t="n">
-        <v>124.2248362339236</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T11" t="n">
-        <v>140.0038378209103</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U11" t="n">
-        <v>168.651229152943</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V11" t="n">
-        <v>245.0652360041457</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W11" t="n">
-        <v>266.5539462514238</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X11" t="n">
-        <v>287.0440782124798</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y11" t="n">
-        <v>303.5509161900644</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>83.84616118387814</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C12" t="n">
-        <v>90.02147652232654</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D12" t="n">
-        <v>64.75804309864955</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E12" t="n">
-        <v>74.95805798941174</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F12" t="n">
-        <v>62.38218992739468</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G12" t="n">
-        <v>54.60699421370646</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H12" t="n">
-        <v>29.07035131129679</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I12" t="n">
-        <v>5.005317422300436</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>14.39743956104837</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S12" t="n">
-        <v>88.07669886729624</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T12" t="n">
-        <v>117.2781845430856</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U12" t="n">
-        <v>143.251103004228</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V12" t="n">
-        <v>150.1135646834361</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W12" t="n">
-        <v>169.0079606949304</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X12" t="n">
-        <v>123.0859627374883</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y12" t="n">
-        <v>122.9956733113152</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="13">
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.1449577159481</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C13" t="n">
-        <v>84.55979863263863</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D13" t="n">
-        <v>65.92845055222315</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E13" t="n">
-        <v>63.74694018057997</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F13" t="n">
-        <v>62.73402555694204</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G13" t="n">
-        <v>85.2624573499196</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H13" t="n">
-        <v>79.17118138132449</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I13" t="n">
-        <v>71.51544803622156</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J13" t="n">
-        <v>7.738139992402253</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>92.74039857070716</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S13" t="n">
-        <v>140.6063517249081</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T13" t="n">
-        <v>145.0812507350334</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U13" t="n">
-        <v>203.6297432790899</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V13" t="n">
-        <v>169.4506208578388</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W13" t="n">
-        <v>203.8359758706018</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X13" t="n">
-        <v>143.022632923048</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y13" t="n">
-        <v>135.8976308861056</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>300.0468191974913</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C14" t="n">
-        <v>282.5858693050184</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D14" t="n">
-        <v>271.9960191546937</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E14" t="n">
-        <v>299.2433476062726</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F14" t="n">
-        <v>324.1890232757222</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G14" t="n">
-        <v>332.5231989378422</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H14" t="n">
-        <v>255.8402990248892</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I14" t="n">
-        <v>124.2221397233818</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>61.37058029848097</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S14" t="n">
-        <v>124.2248362339236</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T14" t="n">
-        <v>140.0038378209103</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U14" t="n">
-        <v>168.651229152943</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V14" t="n">
-        <v>245.0652360041457</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W14" t="n">
-        <v>266.5539462514238</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X14" t="n">
-        <v>287.0440782124798</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y14" t="n">
-        <v>303.5509161900644</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="15">
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>83.84616118387814</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C15" t="n">
-        <v>90.02147652232654</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D15" t="n">
-        <v>64.75804309864955</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E15" t="n">
-        <v>74.95805798941174</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F15" t="n">
-        <v>62.38218992739468</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G15" t="n">
-        <v>54.60699421370646</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H15" t="n">
-        <v>29.07035131129679</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I15" t="n">
-        <v>5.005317422300436</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>14.39743956104837</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S15" t="n">
-        <v>88.07669886729624</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T15" t="n">
-        <v>117.2781845430856</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U15" t="n">
-        <v>143.251103004228</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V15" t="n">
-        <v>150.1135646834361</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W15" t="n">
-        <v>169.0079606949304</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X15" t="n">
-        <v>123.0859627374883</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y15" t="n">
-        <v>122.9956733113152</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="16">
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.1449577159481</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C16" t="n">
-        <v>84.55979863263863</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D16" t="n">
-        <v>65.92845055222315</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E16" t="n">
-        <v>63.74694018057997</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F16" t="n">
-        <v>62.73402555694204</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G16" t="n">
-        <v>85.2624573499196</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H16" t="n">
-        <v>79.17118138132449</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I16" t="n">
-        <v>71.51544803622156</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J16" t="n">
-        <v>7.738139992402253</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>92.74039857070716</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S16" t="n">
-        <v>140.6063517249081</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T16" t="n">
-        <v>145.0812507350334</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U16" t="n">
-        <v>203.6297432790899</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V16" t="n">
-        <v>169.4506208578388</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W16" t="n">
-        <v>203.8359758706018</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X16" t="n">
-        <v>143.022632923048</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y16" t="n">
-        <v>135.8976308861056</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>292.7227606539023</v>
+        <v>279.7704915039189</v>
       </c>
       <c r="C17" t="n">
-        <v>275.2618107614293</v>
+        <v>262.309541611446</v>
       </c>
       <c r="D17" t="n">
-        <v>264.6719606111047</v>
+        <v>251.7196914611214</v>
       </c>
       <c r="E17" t="n">
-        <v>291.9192890626835</v>
+        <v>278.9670199127002</v>
       </c>
       <c r="F17" t="n">
-        <v>316.8649647321332</v>
+        <v>303.9126955821498</v>
       </c>
       <c r="G17" t="n">
-        <v>325.1991403942531</v>
+        <v>312.3393873555734</v>
       </c>
       <c r="H17" t="n">
-        <v>248.5162404813001</v>
+        <v>236.5114519562055</v>
       </c>
       <c r="I17" t="n">
-        <v>116.8980811797927</v>
+        <v>107.5125394108443</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.04652175489188</v>
+        <v>46.90576778158808</v>
       </c>
       <c r="S17" t="n">
-        <v>116.9007776903346</v>
+        <v>106.0567194266837</v>
       </c>
       <c r="T17" t="n">
-        <v>132.6797792773212</v>
+        <v>120.1324994045698</v>
       </c>
       <c r="U17" t="n">
-        <v>161.3271706093539</v>
+        <v>148.3823027482749</v>
       </c>
       <c r="V17" t="n">
-        <v>237.7411774605566</v>
+        <v>224.7889083105733</v>
       </c>
       <c r="W17" t="n">
-        <v>259.2298877078347</v>
+        <v>246.2776185578514</v>
       </c>
       <c r="X17" t="n">
-        <v>279.7200196688908</v>
+        <v>266.7677505189074</v>
       </c>
       <c r="Y17" t="n">
-        <v>296.2268576464753</v>
+        <v>283.274588496492</v>
       </c>
     </row>
     <row r="18">
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>76.52210264028905</v>
+        <v>63.56983349030574</v>
       </c>
       <c r="C18" t="n">
-        <v>82.69741797873745</v>
+        <v>69.74514882875414</v>
       </c>
       <c r="D18" t="n">
-        <v>57.43398455506046</v>
+        <v>44.48171540507715</v>
       </c>
       <c r="E18" t="n">
-        <v>67.63399944582265</v>
+        <v>54.68173029583934</v>
       </c>
       <c r="F18" t="n">
-        <v>55.05813138380559</v>
+        <v>42.10586223382228</v>
       </c>
       <c r="G18" t="n">
-        <v>47.28293567011737</v>
+        <v>34.38016700364903</v>
       </c>
       <c r="H18" t="n">
-        <v>21.7462927677077</v>
+        <v>9.272094076934863</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.073381017459283</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>80.75264032370715</v>
+        <v>68.71982094427622</v>
       </c>
       <c r="T18" t="n">
-        <v>109.9541259994965</v>
+        <v>97.20137853526001</v>
       </c>
       <c r="U18" t="n">
-        <v>135.927044460639</v>
+        <v>122.9780319214132</v>
       </c>
       <c r="V18" t="n">
-        <v>142.789506139847</v>
+        <v>129.8372369898637</v>
       </c>
       <c r="W18" t="n">
-        <v>161.6839021513413</v>
+        <v>148.731633001358</v>
       </c>
       <c r="X18" t="n">
-        <v>115.7619041938992</v>
+        <v>102.8096350439159</v>
       </c>
       <c r="Y18" t="n">
-        <v>115.6716147677261</v>
+        <v>102.7193456177428</v>
       </c>
     </row>
     <row r="19">
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.82089917235901</v>
+        <v>76.8686300223757</v>
       </c>
       <c r="C19" t="n">
-        <v>77.23574008904954</v>
+        <v>64.28347093906623</v>
       </c>
       <c r="D19" t="n">
-        <v>58.60439200863406</v>
+        <v>45.65212285865076</v>
       </c>
       <c r="E19" t="n">
-        <v>56.42288163699088</v>
+        <v>43.47061248700757</v>
       </c>
       <c r="F19" t="n">
-        <v>55.40996701335295</v>
+        <v>42.45769786336965</v>
       </c>
       <c r="G19" t="n">
-        <v>77.93839880633051</v>
+        <v>65.02762919889716</v>
       </c>
       <c r="H19" t="n">
-        <v>71.8471228377354</v>
+        <v>59.26382234787798</v>
       </c>
       <c r="I19" t="n">
-        <v>64.19138949263247</v>
+        <v>52.48712476769668</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4140814488131639</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>85.41634002711807</v>
+        <v>74.33004121760789</v>
       </c>
       <c r="S19" t="n">
-        <v>133.2822931813189</v>
+        <v>121.0532478774107</v>
       </c>
       <c r="T19" t="n">
-        <v>137.7571921914443</v>
+        <v>124.9822392687199</v>
       </c>
       <c r="U19" t="n">
-        <v>196.3056847355008</v>
+        <v>183.3556791969293</v>
       </c>
       <c r="V19" t="n">
-        <v>162.1265623142497</v>
+        <v>149.1742931642664</v>
       </c>
       <c r="W19" t="n">
-        <v>196.5119173270127</v>
+        <v>183.5596481770294</v>
       </c>
       <c r="X19" t="n">
-        <v>135.6985743794589</v>
+        <v>122.7463052294756</v>
       </c>
       <c r="Y19" t="n">
-        <v>128.5735723425165</v>
+        <v>115.6213031925332</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>292.7227606539023</v>
+        <v>279.7704915039189</v>
       </c>
       <c r="C20" t="n">
-        <v>275.2618107614293</v>
+        <v>262.309541611446</v>
       </c>
       <c r="D20" t="n">
-        <v>264.6719606111047</v>
+        <v>251.7196914611214</v>
       </c>
       <c r="E20" t="n">
-        <v>291.9192890626835</v>
+        <v>278.9670199127002</v>
       </c>
       <c r="F20" t="n">
-        <v>316.8649647321332</v>
+        <v>303.9126955821498</v>
       </c>
       <c r="G20" t="n">
-        <v>325.1991403942531</v>
+        <v>312.3393873555734</v>
       </c>
       <c r="H20" t="n">
-        <v>248.5162404813001</v>
+        <v>236.5114519562055</v>
       </c>
       <c r="I20" t="n">
-        <v>116.8980811797927</v>
+        <v>107.5125394108443</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.04652175489188</v>
+        <v>46.90576778158808</v>
       </c>
       <c r="S20" t="n">
-        <v>116.9007776903346</v>
+        <v>106.0567194266837</v>
       </c>
       <c r="T20" t="n">
-        <v>132.6797792773212</v>
+        <v>120.1324994045698</v>
       </c>
       <c r="U20" t="n">
-        <v>161.3271706093539</v>
+        <v>148.3823027482749</v>
       </c>
       <c r="V20" t="n">
-        <v>237.7411774605566</v>
+        <v>224.7889083105733</v>
       </c>
       <c r="W20" t="n">
-        <v>259.2298877078347</v>
+        <v>246.2776185578514</v>
       </c>
       <c r="X20" t="n">
-        <v>279.7200196688908</v>
+        <v>266.7677505189074</v>
       </c>
       <c r="Y20" t="n">
-        <v>296.2268576464753</v>
+        <v>283.274588496492</v>
       </c>
     </row>
     <row r="21">
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>76.52210264028905</v>
+        <v>63.56983349030574</v>
       </c>
       <c r="C21" t="n">
-        <v>82.69741797873745</v>
+        <v>69.74514882875414</v>
       </c>
       <c r="D21" t="n">
-        <v>57.43398455506046</v>
+        <v>44.48171540507715</v>
       </c>
       <c r="E21" t="n">
-        <v>67.63399944582265</v>
+        <v>54.68173029583934</v>
       </c>
       <c r="F21" t="n">
-        <v>55.05813138380559</v>
+        <v>42.10586223382228</v>
       </c>
       <c r="G21" t="n">
-        <v>47.28293567011737</v>
+        <v>34.38016700364903</v>
       </c>
       <c r="H21" t="n">
-        <v>21.7462927677077</v>
+        <v>9.272094076934863</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.073381017459283</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>80.75264032370715</v>
+        <v>68.71982094427622</v>
       </c>
       <c r="T21" t="n">
-        <v>109.9541259994965</v>
+        <v>97.20137853526001</v>
       </c>
       <c r="U21" t="n">
-        <v>135.927044460639</v>
+        <v>122.9780319214132</v>
       </c>
       <c r="V21" t="n">
-        <v>142.789506139847</v>
+        <v>129.8372369898637</v>
       </c>
       <c r="W21" t="n">
-        <v>161.6839021513413</v>
+        <v>148.731633001358</v>
       </c>
       <c r="X21" t="n">
-        <v>115.7619041938992</v>
+        <v>102.8096350439159</v>
       </c>
       <c r="Y21" t="n">
-        <v>115.6716147677261</v>
+        <v>102.7193456177428</v>
       </c>
     </row>
     <row r="22">
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.82089917235901</v>
+        <v>76.8686300223757</v>
       </c>
       <c r="C22" t="n">
-        <v>77.23574008904954</v>
+        <v>64.28347093906623</v>
       </c>
       <c r="D22" t="n">
-        <v>58.60439200863406</v>
+        <v>45.65212285865076</v>
       </c>
       <c r="E22" t="n">
-        <v>56.42288163699088</v>
+        <v>43.47061248700757</v>
       </c>
       <c r="F22" t="n">
-        <v>55.40996701335295</v>
+        <v>42.45769786336965</v>
       </c>
       <c r="G22" t="n">
-        <v>77.93839880633051</v>
+        <v>65.02762919889716</v>
       </c>
       <c r="H22" t="n">
-        <v>71.8471228377354</v>
+        <v>59.26382234787798</v>
       </c>
       <c r="I22" t="n">
-        <v>64.19138949263247</v>
+        <v>52.48712476769668</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4140814488131639</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>85.41634002711807</v>
+        <v>74.33004121760789</v>
       </c>
       <c r="S22" t="n">
-        <v>133.2822931813189</v>
+        <v>121.0532478774107</v>
       </c>
       <c r="T22" t="n">
-        <v>137.7571921914443</v>
+        <v>124.9822392687199</v>
       </c>
       <c r="U22" t="n">
-        <v>196.3056847355008</v>
+        <v>183.3556791969293</v>
       </c>
       <c r="V22" t="n">
-        <v>162.1265623142497</v>
+        <v>149.1742931642664</v>
       </c>
       <c r="W22" t="n">
-        <v>196.5119173270127</v>
+        <v>183.5596481770294</v>
       </c>
       <c r="X22" t="n">
-        <v>135.6985743794589</v>
+        <v>122.7463052294756</v>
       </c>
       <c r="Y22" t="n">
-        <v>128.5735723425165</v>
+        <v>115.6213031925332</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>292.7227606539023</v>
+        <v>279.7704915039189</v>
       </c>
       <c r="C23" t="n">
-        <v>275.2618107614293</v>
+        <v>262.309541611446</v>
       </c>
       <c r="D23" t="n">
-        <v>264.6719606111047</v>
+        <v>251.7196914611214</v>
       </c>
       <c r="E23" t="n">
-        <v>291.9192890626835</v>
+        <v>278.9670199127002</v>
       </c>
       <c r="F23" t="n">
-        <v>316.8649647321332</v>
+        <v>303.9126955821498</v>
       </c>
       <c r="G23" t="n">
-        <v>325.1991403942531</v>
+        <v>312.3393873555734</v>
       </c>
       <c r="H23" t="n">
-        <v>248.5162404813001</v>
+        <v>236.5114519562055</v>
       </c>
       <c r="I23" t="n">
-        <v>116.8980811797927</v>
+        <v>107.5125394108443</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.04652175489188</v>
+        <v>46.90576778158808</v>
       </c>
       <c r="S23" t="n">
-        <v>116.9007776903346</v>
+        <v>106.0567194266837</v>
       </c>
       <c r="T23" t="n">
-        <v>132.6797792773212</v>
+        <v>120.1324994045698</v>
       </c>
       <c r="U23" t="n">
-        <v>161.3271706093539</v>
+        <v>148.3823027482749</v>
       </c>
       <c r="V23" t="n">
-        <v>237.7411774605566</v>
+        <v>224.7889083105733</v>
       </c>
       <c r="W23" t="n">
-        <v>259.2298877078347</v>
+        <v>246.2776185578514</v>
       </c>
       <c r="X23" t="n">
-        <v>279.7200196688908</v>
+        <v>266.7677505189074</v>
       </c>
       <c r="Y23" t="n">
-        <v>296.2268576464753</v>
+        <v>283.274588496492</v>
       </c>
     </row>
     <row r="24">
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>76.52210264028905</v>
+        <v>63.56983349030574</v>
       </c>
       <c r="C24" t="n">
-        <v>82.69741797873745</v>
+        <v>69.74514882875414</v>
       </c>
       <c r="D24" t="n">
-        <v>57.43398455506046</v>
+        <v>44.48171540507715</v>
       </c>
       <c r="E24" t="n">
-        <v>67.63399944582265</v>
+        <v>54.68173029583934</v>
       </c>
       <c r="F24" t="n">
-        <v>55.05813138380559</v>
+        <v>42.10586223382228</v>
       </c>
       <c r="G24" t="n">
-        <v>47.28293567011737</v>
+        <v>34.38016700364903</v>
       </c>
       <c r="H24" t="n">
-        <v>21.7462927677077</v>
+        <v>9.272094076934863</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.073381017459283</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>80.75264032370715</v>
+        <v>68.71982094427622</v>
       </c>
       <c r="T24" t="n">
-        <v>109.9541259994965</v>
+        <v>97.20137853526001</v>
       </c>
       <c r="U24" t="n">
-        <v>135.927044460639</v>
+        <v>122.9780319214132</v>
       </c>
       <c r="V24" t="n">
-        <v>142.789506139847</v>
+        <v>129.8372369898637</v>
       </c>
       <c r="W24" t="n">
-        <v>161.6839021513413</v>
+        <v>148.731633001358</v>
       </c>
       <c r="X24" t="n">
-        <v>115.7619041938992</v>
+        <v>102.8096350439159</v>
       </c>
       <c r="Y24" t="n">
-        <v>115.6716147677261</v>
+        <v>102.7193456177428</v>
       </c>
     </row>
     <row r="25">
@@ -24363,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.82089917235901</v>
+        <v>76.8686300223757</v>
       </c>
       <c r="C25" t="n">
-        <v>77.23574008904954</v>
+        <v>64.28347093906623</v>
       </c>
       <c r="D25" t="n">
-        <v>58.60439200863406</v>
+        <v>45.65212285865076</v>
       </c>
       <c r="E25" t="n">
-        <v>56.42288163699088</v>
+        <v>43.47061248700757</v>
       </c>
       <c r="F25" t="n">
-        <v>55.40996701335295</v>
+        <v>42.45769786336965</v>
       </c>
       <c r="G25" t="n">
-        <v>77.93839880633051</v>
+        <v>65.02762919889716</v>
       </c>
       <c r="H25" t="n">
-        <v>71.8471228377354</v>
+        <v>59.26382234787798</v>
       </c>
       <c r="I25" t="n">
-        <v>64.19138949263247</v>
+        <v>52.48712476769668</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4140814488131639</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>85.41634002711807</v>
+        <v>74.33004121760789</v>
       </c>
       <c r="S25" t="n">
-        <v>133.2822931813189</v>
+        <v>121.0532478774107</v>
       </c>
       <c r="T25" t="n">
-        <v>137.7571921914443</v>
+        <v>124.9822392687199</v>
       </c>
       <c r="U25" t="n">
-        <v>196.3056847355008</v>
+        <v>183.3556791969293</v>
       </c>
       <c r="V25" t="n">
-        <v>162.1265623142497</v>
+        <v>149.1742931642664</v>
       </c>
       <c r="W25" t="n">
-        <v>196.5119173270127</v>
+        <v>183.5596481770294</v>
       </c>
       <c r="X25" t="n">
-        <v>135.6985743794589</v>
+        <v>122.7463052294756</v>
       </c>
       <c r="Y25" t="n">
-        <v>128.5735723425165</v>
+        <v>115.6213031925332</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>300.0468191974913</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C26" t="n">
-        <v>282.5858693050184</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D26" t="n">
-        <v>271.9960191546937</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E26" t="n">
-        <v>299.2433476062726</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F26" t="n">
-        <v>324.1890232757222</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G26" t="n">
-        <v>332.5231989378422</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H26" t="n">
-        <v>255.8402990248892</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I26" t="n">
-        <v>124.2221397233818</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>61.37058029848097</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S26" t="n">
-        <v>124.2248362339236</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T26" t="n">
-        <v>140.0038378209103</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U26" t="n">
-        <v>168.651229152943</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V26" t="n">
-        <v>245.0652360041457</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W26" t="n">
-        <v>266.5539462514238</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X26" t="n">
-        <v>287.0440782124798</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y26" t="n">
-        <v>303.5509161900644</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="27">
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>83.84616118387814</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C27" t="n">
-        <v>90.02147652232654</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D27" t="n">
-        <v>64.75804309864955</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E27" t="n">
-        <v>74.95805798941174</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F27" t="n">
-        <v>62.38218992739468</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G27" t="n">
-        <v>54.60699421370646</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H27" t="n">
-        <v>29.07035131129679</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I27" t="n">
-        <v>5.005317422300436</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.39743956104837</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S27" t="n">
-        <v>88.07669886729624</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T27" t="n">
-        <v>117.2781845430856</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U27" t="n">
-        <v>143.251103004228</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V27" t="n">
-        <v>150.1135646834361</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W27" t="n">
-        <v>169.0079606949304</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X27" t="n">
-        <v>123.0859627374883</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y27" t="n">
-        <v>122.9956733113152</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="28">
@@ -24600,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.1449577159481</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C28" t="n">
-        <v>84.55979863263863</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D28" t="n">
-        <v>65.92845055222315</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E28" t="n">
-        <v>63.74694018057997</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F28" t="n">
-        <v>62.73402555694204</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G28" t="n">
-        <v>85.2624573499196</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H28" t="n">
-        <v>79.17118138132449</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I28" t="n">
-        <v>71.51544803622156</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J28" t="n">
-        <v>7.738139992402253</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>92.74039857070716</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S28" t="n">
-        <v>140.6063517249081</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T28" t="n">
-        <v>145.0812507350334</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U28" t="n">
-        <v>203.6297432790899</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V28" t="n">
-        <v>169.4506208578388</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W28" t="n">
-        <v>203.8359758706018</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X28" t="n">
-        <v>143.022632923048</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y28" t="n">
-        <v>135.8976308861056</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>300.0468191974913</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C29" t="n">
-        <v>282.5858693050184</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D29" t="n">
-        <v>271.9960191546937</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E29" t="n">
-        <v>299.2433476062726</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F29" t="n">
-        <v>324.1890232757222</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G29" t="n">
-        <v>332.5231989378422</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H29" t="n">
-        <v>255.8402990248892</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I29" t="n">
-        <v>124.2221397233818</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>61.37058029848097</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S29" t="n">
-        <v>124.2248362339236</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T29" t="n">
-        <v>140.0038378209103</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U29" t="n">
-        <v>168.651229152943</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V29" t="n">
-        <v>245.0652360041457</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W29" t="n">
-        <v>266.5539462514238</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X29" t="n">
-        <v>287.0440782124798</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y29" t="n">
-        <v>303.5509161900644</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="30">
@@ -24758,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>83.84616118387814</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C30" t="n">
-        <v>90.02147652232654</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D30" t="n">
-        <v>64.75804309864955</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E30" t="n">
-        <v>74.95805798941174</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F30" t="n">
-        <v>62.38218992739468</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G30" t="n">
-        <v>54.60699421370646</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H30" t="n">
-        <v>29.07035131129679</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I30" t="n">
-        <v>5.005317422300436</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>14.39743956104837</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S30" t="n">
-        <v>88.07669886729624</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T30" t="n">
-        <v>117.2781845430856</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U30" t="n">
-        <v>143.251103004228</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V30" t="n">
-        <v>150.1135646834361</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W30" t="n">
-        <v>169.0079606949304</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X30" t="n">
-        <v>123.0859627374883</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y30" t="n">
-        <v>122.9956733113152</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="31">
@@ -24837,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.1449577159481</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C31" t="n">
-        <v>84.55979863263863</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D31" t="n">
-        <v>65.92845055222315</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E31" t="n">
-        <v>63.74694018057997</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F31" t="n">
-        <v>62.73402555694204</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G31" t="n">
-        <v>85.2624573499196</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H31" t="n">
-        <v>79.17118138132449</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I31" t="n">
-        <v>71.51544803622156</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J31" t="n">
-        <v>7.738139992402253</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>92.74039857070716</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S31" t="n">
-        <v>140.6063517249081</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T31" t="n">
-        <v>145.0812507350334</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U31" t="n">
-        <v>203.6297432790899</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V31" t="n">
-        <v>169.4506208578388</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W31" t="n">
-        <v>203.8359758706018</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X31" t="n">
-        <v>143.022632923048</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y31" t="n">
-        <v>135.8976308861056</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>292.3086792050891</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C32" t="n">
-        <v>274.8477293126161</v>
+        <v>253.0374475345111</v>
       </c>
       <c r="D32" t="n">
-        <v>264.2578791622915</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E32" t="n">
-        <v>291.5052076138703</v>
+        <v>269.6949258357653</v>
       </c>
       <c r="F32" t="n">
-        <v>316.45088328332</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G32" t="n">
-        <v>324.7850589454399</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H32" t="n">
-        <v>248.1021590324869</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I32" t="n">
-        <v>116.4839997309795</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>53.63244030607872</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S32" t="n">
-        <v>116.4866962415214</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T32" t="n">
-        <v>132.2656978285081</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U32" t="n">
-        <v>160.9130891605407</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V32" t="n">
-        <v>237.3270960117434</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W32" t="n">
-        <v>258.8158062590215</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X32" t="n">
-        <v>279.3059382200776</v>
+        <v>257.4956564419726</v>
       </c>
       <c r="Y32" t="n">
-        <v>295.8127761976621</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="33">
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>76.10802119147588</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C33" t="n">
-        <v>82.28333652992428</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D33" t="n">
-        <v>57.0199031062473</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E33" t="n">
-        <v>67.21991799700949</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F33" t="n">
-        <v>54.64404993499242</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G33" t="n">
-        <v>46.8688542213042</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H33" t="n">
-        <v>21.33221131889454</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>6.659299568646119</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>80.33855887489399</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T33" t="n">
-        <v>109.5400445506834</v>
+        <v>87.92928445832514</v>
       </c>
       <c r="U33" t="n">
-        <v>135.5129630118258</v>
+        <v>113.7059378444784</v>
       </c>
       <c r="V33" t="n">
-        <v>142.3754246910338</v>
+        <v>120.5651429129288</v>
       </c>
       <c r="W33" t="n">
-        <v>161.2698207025281</v>
+        <v>139.4595389244232</v>
       </c>
       <c r="X33" t="n">
-        <v>115.347822745086</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y33" t="n">
-        <v>115.2575333189129</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="34">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>89.40681772354584</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C34" t="n">
-        <v>76.82165864023638</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D34" t="n">
-        <v>58.1903105598209</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E34" t="n">
-        <v>56.00880018817772</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F34" t="n">
-        <v>54.99588556453979</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G34" t="n">
-        <v>77.52431735751735</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H34" t="n">
-        <v>71.43304138892223</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I34" t="n">
-        <v>63.7773080438193</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>85.0022585783049</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S34" t="n">
-        <v>132.8682117325058</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T34" t="n">
-        <v>137.3431107426312</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U34" t="n">
-        <v>195.8916032866876</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V34" t="n">
-        <v>161.7124808654365</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W34" t="n">
-        <v>196.0978358781995</v>
+        <v>174.2875541000946</v>
       </c>
       <c r="X34" t="n">
-        <v>135.2844929306457</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y34" t="n">
-        <v>128.1594908937033</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>292.3086792050891</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C35" t="n">
-        <v>274.8477293126161</v>
+        <v>253.0374475345111</v>
       </c>
       <c r="D35" t="n">
-        <v>264.2578791622915</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E35" t="n">
-        <v>291.5052076138703</v>
+        <v>269.6949258357653</v>
       </c>
       <c r="F35" t="n">
-        <v>316.45088328332</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G35" t="n">
-        <v>324.7850589454399</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H35" t="n">
-        <v>248.1021590324869</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I35" t="n">
-        <v>116.4839997309795</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>53.63244030607872</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S35" t="n">
-        <v>116.4866962415214</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T35" t="n">
-        <v>132.2656978285081</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U35" t="n">
-        <v>160.9130891605407</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V35" t="n">
-        <v>237.3270960117434</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W35" t="n">
-        <v>258.8158062590215</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X35" t="n">
-        <v>279.3059382200776</v>
+        <v>257.4956564419726</v>
       </c>
       <c r="Y35" t="n">
-        <v>295.8127761976621</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="36">
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>76.10802119147588</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C36" t="n">
-        <v>82.28333652992428</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D36" t="n">
-        <v>57.0199031062473</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E36" t="n">
-        <v>67.21991799700949</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F36" t="n">
-        <v>54.64404993499242</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G36" t="n">
-        <v>46.8688542213042</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H36" t="n">
-        <v>21.33221131889454</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>6.659299568646119</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>80.33855887489399</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T36" t="n">
-        <v>109.5400445506834</v>
+        <v>87.92928445832514</v>
       </c>
       <c r="U36" t="n">
-        <v>135.5129630118258</v>
+        <v>113.7059378444784</v>
       </c>
       <c r="V36" t="n">
-        <v>142.3754246910338</v>
+        <v>120.5651429129288</v>
       </c>
       <c r="W36" t="n">
-        <v>161.2698207025281</v>
+        <v>139.4595389244232</v>
       </c>
       <c r="X36" t="n">
-        <v>115.347822745086</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y36" t="n">
-        <v>115.2575333189129</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="37">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.40681772354584</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C37" t="n">
-        <v>76.82165864023638</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D37" t="n">
-        <v>58.1903105598209</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E37" t="n">
-        <v>56.00880018817772</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F37" t="n">
-        <v>54.99588556453979</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G37" t="n">
-        <v>77.52431735751735</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H37" t="n">
-        <v>71.43304138892223</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I37" t="n">
-        <v>63.7773080438193</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>85.0022585783049</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S37" t="n">
-        <v>132.8682117325058</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T37" t="n">
-        <v>137.3431107426312</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U37" t="n">
-        <v>195.8916032866876</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V37" t="n">
-        <v>161.7124808654365</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W37" t="n">
-        <v>196.0978358781995</v>
+        <v>174.2875541000946</v>
       </c>
       <c r="X37" t="n">
-        <v>135.2844929306457</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y37" t="n">
-        <v>128.1594908937033</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>292.3086792050891</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C38" t="n">
-        <v>274.8477293126161</v>
+        <v>253.0374475345111</v>
       </c>
       <c r="D38" t="n">
-        <v>264.2578791622915</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E38" t="n">
-        <v>291.5052076138703</v>
+        <v>269.6949258357653</v>
       </c>
       <c r="F38" t="n">
-        <v>316.45088328332</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G38" t="n">
-        <v>324.7850589454399</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H38" t="n">
-        <v>248.1021590324869</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I38" t="n">
-        <v>116.4839997309795</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>53.63244030607872</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S38" t="n">
-        <v>116.4866962415214</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T38" t="n">
-        <v>132.2656978285081</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U38" t="n">
-        <v>160.9130891605407</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V38" t="n">
-        <v>237.3270960117434</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W38" t="n">
-        <v>258.8158062590215</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X38" t="n">
-        <v>279.3059382200776</v>
+        <v>257.4956564419726</v>
       </c>
       <c r="Y38" t="n">
-        <v>295.8127761976621</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="39">
@@ -25469,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>76.10802119147588</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C39" t="n">
-        <v>82.28333652992428</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D39" t="n">
-        <v>57.0199031062473</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E39" t="n">
-        <v>67.21991799700949</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F39" t="n">
-        <v>54.64404993499242</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G39" t="n">
-        <v>46.8688542213042</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H39" t="n">
-        <v>21.33221131889454</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>6.659299568646119</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>80.33855887489399</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T39" t="n">
-        <v>109.5400445506834</v>
+        <v>87.92928445832514</v>
       </c>
       <c r="U39" t="n">
-        <v>135.5129630118258</v>
+        <v>113.7059378444784</v>
       </c>
       <c r="V39" t="n">
-        <v>142.3754246910338</v>
+        <v>120.5651429129288</v>
       </c>
       <c r="W39" t="n">
-        <v>161.2698207025281</v>
+        <v>139.4595389244232</v>
       </c>
       <c r="X39" t="n">
-        <v>115.347822745086</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y39" t="n">
-        <v>115.2575333189129</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="40">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.40681772354584</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C40" t="n">
-        <v>76.82165864023638</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D40" t="n">
-        <v>58.1903105598209</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E40" t="n">
-        <v>56.00880018817772</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F40" t="n">
-        <v>54.99588556453979</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G40" t="n">
-        <v>77.52431735751736</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H40" t="n">
-        <v>71.43304138892222</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I40" t="n">
-        <v>63.7773080438193</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>85.0022585783049</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S40" t="n">
-        <v>132.8682117325058</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T40" t="n">
-        <v>137.3431107426312</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U40" t="n">
-        <v>195.8916032866876</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V40" t="n">
-        <v>161.7124808654365</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W40" t="n">
-        <v>196.0978358781995</v>
+        <v>174.2875541000946</v>
       </c>
       <c r="X40" t="n">
-        <v>135.2844929306457</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y40" t="n">
-        <v>128.1594908937033</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>367.6716431274892</v>
+        <v>346.3283129702526</v>
       </c>
       <c r="C41" t="n">
-        <v>350.2106932350162</v>
+        <v>328.8673630777796</v>
       </c>
       <c r="D41" t="n">
-        <v>339.6208430846916</v>
+        <v>318.277512927455</v>
       </c>
       <c r="E41" t="n">
-        <v>366.8681715362704</v>
+        <v>345.5248413790338</v>
       </c>
       <c r="F41" t="n">
-        <v>391.8138472057201</v>
+        <v>370.4705170484835</v>
       </c>
       <c r="G41" t="n">
-        <v>400.14802286784</v>
+        <v>378.8972088219071</v>
       </c>
       <c r="H41" t="n">
-        <v>323.465122954887</v>
+        <v>303.0692734225392</v>
       </c>
       <c r="I41" t="n">
-        <v>191.8469636533796</v>
+        <v>174.070360877178</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>128.9954042284788</v>
+        <v>113.4635892479217</v>
       </c>
       <c r="S41" t="n">
-        <v>191.8496601639215</v>
+        <v>172.6145408930174</v>
       </c>
       <c r="T41" t="n">
-        <v>207.6286617509082</v>
+        <v>186.6903208709034</v>
       </c>
       <c r="U41" t="n">
-        <v>236.2760530829408</v>
+        <v>214.9401242146085</v>
       </c>
       <c r="V41" t="n">
-        <v>312.6900599341436</v>
+        <v>291.346729776907</v>
       </c>
       <c r="W41" t="n">
-        <v>334.1787701814217</v>
+        <v>312.8354400241851</v>
       </c>
       <c r="X41" t="n">
-        <v>354.6689021424777</v>
+        <v>333.3255719852411</v>
       </c>
       <c r="Y41" t="n">
-        <v>371.1757401200622</v>
+        <v>349.8324099628256</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>151.470985113876</v>
+        <v>130.1276549566394</v>
       </c>
       <c r="C42" t="n">
-        <v>157.6463004523244</v>
+        <v>136.3029702950878</v>
       </c>
       <c r="D42" t="n">
-        <v>132.3828670286474</v>
+        <v>111.0395368714108</v>
       </c>
       <c r="E42" t="n">
-        <v>142.5828819194096</v>
+        <v>121.239551762173</v>
       </c>
       <c r="F42" t="n">
-        <v>130.0070138573926</v>
+        <v>108.6636837001559</v>
       </c>
       <c r="G42" t="n">
-        <v>122.2318181437043</v>
+        <v>100.9379884699827</v>
       </c>
       <c r="H42" t="n">
-        <v>96.69517524129466</v>
+        <v>75.82991554326853</v>
       </c>
       <c r="I42" t="n">
-        <v>72.63014135229831</v>
+        <v>52.99110415818714</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.02226349104625</v>
+        <v>63.7523054594152</v>
       </c>
       <c r="S42" t="n">
-        <v>155.7015227972941</v>
+        <v>135.2776424106099</v>
       </c>
       <c r="T42" t="n">
-        <v>184.9030084730835</v>
+        <v>163.7592000015937</v>
       </c>
       <c r="U42" t="n">
-        <v>210.8759269342259</v>
+        <v>189.5358533877469</v>
       </c>
       <c r="V42" t="n">
-        <v>217.7383886134339</v>
+        <v>196.3950584561973</v>
       </c>
       <c r="W42" t="n">
-        <v>236.6327846249283</v>
+        <v>215.2894544676917</v>
       </c>
       <c r="X42" t="n">
-        <v>190.7107866674862</v>
+        <v>169.3674565102496</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.620497241313</v>
+        <v>169.2771670840764</v>
       </c>
     </row>
     <row r="43">
@@ -25785,34 +25785,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>164.769781645946</v>
+        <v>143.4264514887093</v>
       </c>
       <c r="C43" t="n">
-        <v>152.1846225626365</v>
+        <v>130.8412924053999</v>
       </c>
       <c r="D43" t="n">
-        <v>133.553274482221</v>
+        <v>112.2099443249844</v>
       </c>
       <c r="E43" t="n">
-        <v>131.3717641105778</v>
+        <v>110.0284339533412</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3588494869399</v>
+        <v>109.0155193297033</v>
       </c>
       <c r="G43" t="n">
-        <v>152.8872812799175</v>
+        <v>131.5854506652308</v>
       </c>
       <c r="H43" t="n">
-        <v>146.7960053113223</v>
+        <v>125.8216438142116</v>
       </c>
       <c r="I43" t="n">
-        <v>139.1402719662194</v>
+        <v>119.0449462340303</v>
       </c>
       <c r="J43" t="n">
-        <v>75.36296392240013</v>
+        <v>56.95365142344484</v>
       </c>
       <c r="K43" t="n">
-        <v>2.385800982724845</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.62482392999787</v>
+        <v>49.75651455846645</v>
       </c>
       <c r="R43" t="n">
-        <v>160.365222500705</v>
+        <v>140.8878626839415</v>
       </c>
       <c r="S43" t="n">
-        <v>208.2311756549059</v>
+        <v>187.6110693437443</v>
       </c>
       <c r="T43" t="n">
-        <v>212.7060746650313</v>
+        <v>191.5400607350535</v>
       </c>
       <c r="U43" t="n">
-        <v>271.2545672090877</v>
+        <v>249.9135006632629</v>
       </c>
       <c r="V43" t="n">
-        <v>237.0754447878367</v>
+        <v>215.7321146306001</v>
       </c>
       <c r="W43" t="n">
-        <v>271.4607998005997</v>
+        <v>250.1174696433631</v>
       </c>
       <c r="X43" t="n">
-        <v>210.6474568530458</v>
+        <v>189.3041266958092</v>
       </c>
       <c r="Y43" t="n">
-        <v>203.5224548161034</v>
+        <v>182.1791246588668</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>367.6716431274892</v>
+        <v>346.3283129702526</v>
       </c>
       <c r="C44" t="n">
-        <v>350.2106932350162</v>
+        <v>328.8673630777796</v>
       </c>
       <c r="D44" t="n">
-        <v>339.6208430846916</v>
+        <v>318.277512927455</v>
       </c>
       <c r="E44" t="n">
-        <v>366.8681715362704</v>
+        <v>345.5248413790338</v>
       </c>
       <c r="F44" t="n">
-        <v>391.8138472057201</v>
+        <v>370.4705170484835</v>
       </c>
       <c r="G44" t="n">
-        <v>400.14802286784</v>
+        <v>378.8972088219071</v>
       </c>
       <c r="H44" t="n">
-        <v>323.465122954887</v>
+        <v>303.0692734225392</v>
       </c>
       <c r="I44" t="n">
-        <v>191.8469636533796</v>
+        <v>174.070360877178</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>128.9954042284788</v>
+        <v>113.4635892479217</v>
       </c>
       <c r="S44" t="n">
-        <v>191.8496601639215</v>
+        <v>172.6145408930174</v>
       </c>
       <c r="T44" t="n">
-        <v>207.6286617509082</v>
+        <v>186.6903208709034</v>
       </c>
       <c r="U44" t="n">
-        <v>236.2760530829408</v>
+        <v>214.9401242146085</v>
       </c>
       <c r="V44" t="n">
-        <v>312.6900599341436</v>
+        <v>291.346729776907</v>
       </c>
       <c r="W44" t="n">
-        <v>334.1787701814217</v>
+        <v>312.8354400241851</v>
       </c>
       <c r="X44" t="n">
-        <v>354.6689021424777</v>
+        <v>333.3255719852411</v>
       </c>
       <c r="Y44" t="n">
-        <v>371.1757401200622</v>
+        <v>349.8324099628256</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>151.470985113876</v>
+        <v>130.1276549566394</v>
       </c>
       <c r="C45" t="n">
-        <v>157.6463004523244</v>
+        <v>136.3029702950878</v>
       </c>
       <c r="D45" t="n">
-        <v>132.3828670286474</v>
+        <v>111.0395368714108</v>
       </c>
       <c r="E45" t="n">
-        <v>142.5828819194096</v>
+        <v>121.239551762173</v>
       </c>
       <c r="F45" t="n">
-        <v>130.0070138573925</v>
+        <v>108.6636837001559</v>
       </c>
       <c r="G45" t="n">
-        <v>122.2318181437043</v>
+        <v>100.9379884699827</v>
       </c>
       <c r="H45" t="n">
-        <v>96.69517524129465</v>
+        <v>75.82991554326853</v>
       </c>
       <c r="I45" t="n">
-        <v>72.6301413522983</v>
+        <v>52.99110415818714</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.02226349104623</v>
+        <v>63.7523054594152</v>
       </c>
       <c r="S45" t="n">
-        <v>155.7015227972941</v>
+        <v>135.2776424106099</v>
       </c>
       <c r="T45" t="n">
-        <v>184.9030084730835</v>
+        <v>163.7592000015937</v>
       </c>
       <c r="U45" t="n">
-        <v>210.8759269342259</v>
+        <v>189.5358533877469</v>
       </c>
       <c r="V45" t="n">
-        <v>217.7383886134339</v>
+        <v>196.3950584561973</v>
       </c>
       <c r="W45" t="n">
-        <v>236.6327846249283</v>
+        <v>215.2894544676917</v>
       </c>
       <c r="X45" t="n">
-        <v>190.7107866674861</v>
+        <v>169.3674565102496</v>
       </c>
       <c r="Y45" t="n">
-        <v>190.620497241313</v>
+        <v>169.2771670840764</v>
       </c>
     </row>
     <row r="46">
@@ -26022,34 +26022,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>164.769781645946</v>
+        <v>143.4264514887093</v>
       </c>
       <c r="C46" t="n">
-        <v>152.1846225626365</v>
+        <v>130.8412924053999</v>
       </c>
       <c r="D46" t="n">
-        <v>133.553274482221</v>
+        <v>112.2099443249844</v>
       </c>
       <c r="E46" t="n">
-        <v>131.3717641105778</v>
+        <v>110.0284339533412</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3588494869399</v>
+        <v>109.0155193297033</v>
       </c>
       <c r="G46" t="n">
-        <v>152.8872812799175</v>
+        <v>131.5854506652308</v>
       </c>
       <c r="H46" t="n">
-        <v>146.7960053113223</v>
+        <v>125.8216438142116</v>
       </c>
       <c r="I46" t="n">
-        <v>139.1402719662194</v>
+        <v>119.0449462340303</v>
       </c>
       <c r="J46" t="n">
-        <v>75.36296392240011</v>
+        <v>56.95365142344484</v>
       </c>
       <c r="K46" t="n">
-        <v>2.385800982724831</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.62482392999786</v>
+        <v>49.75651455846645</v>
       </c>
       <c r="R46" t="n">
-        <v>160.365222500705</v>
+        <v>140.8878626839415</v>
       </c>
       <c r="S46" t="n">
-        <v>208.2311756549059</v>
+        <v>187.6110693437443</v>
       </c>
       <c r="T46" t="n">
-        <v>212.7060746650313</v>
+        <v>191.5400607350535</v>
       </c>
       <c r="U46" t="n">
-        <v>271.2545672090877</v>
+        <v>249.9135006632629</v>
       </c>
       <c r="V46" t="n">
-        <v>237.0754447878367</v>
+        <v>215.7321146306001</v>
       </c>
       <c r="W46" t="n">
-        <v>271.4607998005997</v>
+        <v>250.1174696433631</v>
       </c>
       <c r="X46" t="n">
-        <v>210.6474568530458</v>
+        <v>189.3041266958092</v>
       </c>
       <c r="Y46" t="n">
-        <v>203.5224548161034</v>
+        <v>182.1791246588668</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>476353.1332427879</v>
+        <v>494890.1838369067</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>476353.1332427879</v>
+        <v>494890.1838369067</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>491391.2888396994</v>
+        <v>522096.3576513401</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>491391.2888396994</v>
+        <v>522096.3576513401</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>491391.2888396994</v>
+        <v>522096.3576513401</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>476353.1332427879</v>
+        <v>494890.1838369067</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>476353.1332427879</v>
+        <v>494890.1838369067</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>492231.0046097474</v>
+        <v>540360.5285640863</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>492231.0046097474</v>
+        <v>540360.5285640863</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>492231.0046097474</v>
+        <v>540360.5285640863</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>335237.6487041751</v>
+        <v>384418.6669445226</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>335237.6487041751</v>
+        <v>384418.6669445226</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>716866.7963774087</v>
+      </c>
+      <c r="C2" t="n">
         <v>716866.7963774084</v>
       </c>
-      <c r="C2" t="n">
-        <v>716866.7963774089</v>
-      </c>
       <c r="D2" t="n">
-        <v>716866.7963774086</v>
+        <v>716866.7963774083</v>
       </c>
       <c r="E2" t="n">
-        <v>364070.9280329869</v>
+        <v>376632.0377523155</v>
       </c>
       <c r="F2" t="n">
-        <v>364070.9280329868</v>
+        <v>376632.0377523155</v>
       </c>
       <c r="G2" t="n">
-        <v>379109.0836298985</v>
+        <v>403838.2115667486</v>
       </c>
       <c r="H2" t="n">
-        <v>379109.0836298984</v>
+        <v>403838.2115667489</v>
       </c>
       <c r="I2" t="n">
-        <v>379109.0836298987</v>
+        <v>403838.2115667489</v>
       </c>
       <c r="J2" t="n">
-        <v>364070.9280329869</v>
+        <v>376632.0377523155</v>
       </c>
       <c r="K2" t="n">
-        <v>364070.9280329868</v>
+        <v>376632.0377523154</v>
       </c>
       <c r="L2" t="n">
-        <v>379948.7993999469</v>
+        <v>422102.382479495</v>
       </c>
       <c r="M2" t="n">
-        <v>379948.7993999469</v>
+        <v>422102.3824794949</v>
       </c>
       <c r="N2" t="n">
-        <v>379948.7993999467</v>
+        <v>422102.3824794948</v>
       </c>
       <c r="O2" t="n">
-        <v>222955.4434943738</v>
+        <v>266160.5208599316</v>
       </c>
       <c r="P2" t="n">
-        <v>222955.4434943738</v>
+        <v>266160.5208599316</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>84638.63866350596</v>
+        <v>71517.30628113206</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5859.246834871272</v>
+        <v>10853.37384651722</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60290.3711379201</v>
+        <v>60663.93243461482</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>12049.75882879307</v>
+        <v>29124.42295458233</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>225220.3103677904</v>
+        <v>241213.8188882921</v>
       </c>
       <c r="F4" t="n">
-        <v>225220.3103677904</v>
+        <v>241213.8188882921</v>
       </c>
       <c r="G4" t="n">
-        <v>235029.7779014916</v>
+        <v>258960.5483345361</v>
       </c>
       <c r="H4" t="n">
-        <v>235029.7779014916</v>
+        <v>258960.5483345361</v>
       </c>
       <c r="I4" t="n">
-        <v>235029.7779014916</v>
+        <v>258960.5483345361</v>
       </c>
       <c r="J4" t="n">
-        <v>225220.3103677904</v>
+        <v>241213.8188882921</v>
       </c>
       <c r="K4" t="n">
-        <v>225220.3103677904</v>
+        <v>241213.8188882921</v>
       </c>
       <c r="L4" t="n">
-        <v>235577.5288893532</v>
+        <v>270874.3625283026</v>
       </c>
       <c r="M4" t="n">
-        <v>235577.5288893532</v>
+        <v>270874.3625283026</v>
       </c>
       <c r="N4" t="n">
-        <v>235577.5288893532</v>
+        <v>270874.3625283026</v>
       </c>
       <c r="O4" t="n">
-        <v>133169.9418792292</v>
+        <v>169152.6707394382</v>
       </c>
       <c r="P4" t="n">
-        <v>133169.9418792293</v>
+        <v>169152.6707394382</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>7453.107034265254</v>
+        <v>7515.485527185614</v>
       </c>
       <c r="F5" t="n">
-        <v>7453.107034265254</v>
+        <v>7515.485527185614</v>
       </c>
       <c r="G5" t="n">
-        <v>8068.833311966245</v>
+        <v>8656.025884564184</v>
       </c>
       <c r="H5" t="n">
-        <v>8068.833311966245</v>
+        <v>8656.025884564184</v>
       </c>
       <c r="I5" t="n">
-        <v>8068.833311966245</v>
+        <v>8656.025884564184</v>
       </c>
       <c r="J5" t="n">
-        <v>7453.107034265254</v>
+        <v>7515.485527185614</v>
       </c>
       <c r="K5" t="n">
-        <v>7453.107034265254</v>
+        <v>7515.485527185614</v>
       </c>
       <c r="L5" t="n">
-        <v>8103.644725286519</v>
+        <v>9435.521561518022</v>
       </c>
       <c r="M5" t="n">
-        <v>8103.644725286519</v>
+        <v>9435.521561518022</v>
       </c>
       <c r="N5" t="n">
-        <v>8103.644725286519</v>
+        <v>9435.521561518022</v>
       </c>
       <c r="O5" t="n">
-        <v>1767.955711294262</v>
+        <v>3060.576391710979</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.955711294263</v>
+        <v>3060.576391710979</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>220088.4652752987</v>
+        <v>220044.3294966178</v>
       </c>
       <c r="C6" t="n">
-        <v>220088.4652752991</v>
+        <v>220044.3294966175</v>
       </c>
       <c r="D6" t="n">
-        <v>220088.4652752988</v>
+        <v>220044.3294966174</v>
       </c>
       <c r="E6" t="n">
-        <v>46758.87196742526</v>
+        <v>46620.29817345059</v>
       </c>
       <c r="F6" t="n">
-        <v>131397.5106309312</v>
+        <v>118137.6044545826</v>
       </c>
       <c r="G6" t="n">
-        <v>130151.2255815694</v>
+        <v>116380.4538707167</v>
       </c>
       <c r="H6" t="n">
-        <v>136010.4724164405</v>
+        <v>127233.8277172343</v>
       </c>
       <c r="I6" t="n">
-        <v>136010.4724164408</v>
+        <v>127233.8277172343</v>
       </c>
       <c r="J6" t="n">
-        <v>71107.13949301113</v>
+        <v>57473.67201996777</v>
       </c>
       <c r="K6" t="n">
-        <v>131397.5106309312</v>
+        <v>118137.6044545825</v>
       </c>
       <c r="L6" t="n">
-        <v>124217.8669565141</v>
+        <v>104202.0992593277</v>
       </c>
       <c r="M6" t="n">
-        <v>136267.6257853072</v>
+        <v>133326.5222139099</v>
       </c>
       <c r="N6" t="n">
-        <v>136267.625785307</v>
+        <v>133326.5222139099</v>
       </c>
       <c r="O6" t="n">
-        <v>88017.54590385029</v>
+        <v>81025.81579245915</v>
       </c>
       <c r="P6" t="n">
-        <v>88017.54590385026</v>
+        <v>81025.81579245915</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F2" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G2" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H2" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I2" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J2" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K2" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L2" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M2" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N2" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="O2" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="P2" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
     </row>
     <row r="3">
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141506</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.324058543589089</v>
+        <v>13.56671730814652</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>75.36296392240013</v>
+        <v>75.82991554326853</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322791</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141506</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.324058543589089</v>
+        <v>13.56671730814652</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>75.36296392240013</v>
+        <v>75.82991554326853</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28089,31 +28089,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C11" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D11" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E11" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F11" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G11" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H11" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I11" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J11" t="n">
-        <v>4.097100052852174</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -28134,31 +28134,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S11" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T11" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U11" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V11" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W11" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X11" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y11" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="12">
@@ -28168,31 +28168,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C12" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D12" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E12" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F12" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G12" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H12" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I12" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28216,28 +28216,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S12" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T12" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U12" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V12" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W12" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X12" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y12" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="13">
@@ -28247,34 +28247,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C13" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D13" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E13" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F13" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G13" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H13" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I13" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J13" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K13" t="n">
-        <v>17.44799951871617</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28289,34 +28289,34 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.6870224659892</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S13" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T13" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U13" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V13" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W13" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X13" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y13" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="14">
@@ -28326,31 +28326,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C14" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D14" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E14" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F14" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G14" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H14" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I14" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J14" t="n">
-        <v>4.097100052852174</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28371,31 +28371,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S14" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T14" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U14" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V14" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W14" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X14" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y14" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="15">
@@ -28405,31 +28405,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C15" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D15" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E15" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F15" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G15" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H15" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I15" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28453,28 +28453,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S15" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T15" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U15" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V15" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W15" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X15" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y15" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="16">
@@ -28484,34 +28484,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C16" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D16" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E16" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F16" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G16" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H16" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I16" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J16" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K16" t="n">
-        <v>17.44799951871617</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28526,34 +28526,34 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.6870224659892</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S16" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T16" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U16" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V16" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W16" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X16" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y16" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="17">
@@ -28563,31 +28563,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C17" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D17" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E17" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F17" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G17" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H17" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I17" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J17" t="n">
-        <v>4.097100052852173</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -28608,31 +28608,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S17" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T17" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U17" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V17" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W17" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X17" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y17" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="18">
@@ -28642,31 +28642,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C18" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D18" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E18" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F18" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G18" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H18" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I18" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28690,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>90.01108100957829</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T18" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U18" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V18" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W18" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X18" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y18" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="19">
@@ -28721,34 +28721,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C19" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D19" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E19" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F19" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G19" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H19" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I19" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J19" t="n">
-        <v>90.01108100957829</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K19" t="n">
-        <v>17.44799951871617</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28763,34 +28763,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.6870224659892</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S19" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T19" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U19" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V19" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W19" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X19" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="20">
@@ -28800,31 +28800,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C20" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D20" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E20" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F20" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G20" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H20" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I20" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J20" t="n">
-        <v>4.097100052852174</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28845,31 +28845,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S20" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T20" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U20" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V20" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W20" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X20" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y20" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="21">
@@ -28879,31 +28879,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C21" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D21" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E21" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F21" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G21" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H21" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I21" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28927,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>90.01108100957829</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T21" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U21" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V21" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W21" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X21" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y21" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="22">
@@ -28958,34 +28958,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C22" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D22" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E22" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F22" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G22" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H22" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I22" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J22" t="n">
-        <v>90.01108100957829</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>17.44799951871617</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29000,34 +29000,34 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.6870224659892</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S22" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T22" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U22" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V22" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W22" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X22" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="23">
@@ -29037,31 +29037,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C23" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D23" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E23" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F23" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G23" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H23" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I23" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J23" t="n">
-        <v>4.097100052852174</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29082,31 +29082,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S23" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T23" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U23" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V23" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W23" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X23" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y23" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="24">
@@ -29116,31 +29116,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C24" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D24" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E24" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F24" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G24" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H24" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I24" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29164,28 +29164,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>90.01108100957829</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T24" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U24" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V24" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W24" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X24" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y24" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="25">
@@ -29195,34 +29195,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C25" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D25" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E25" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F25" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G25" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H25" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I25" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J25" t="n">
-        <v>90.01108100957829</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>17.44799951871617</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29237,34 +29237,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.6870224659892</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S25" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T25" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U25" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V25" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W25" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X25" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.01108100957829</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="26">
@@ -29274,31 +29274,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C26" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D26" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E26" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F26" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G26" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H26" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I26" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J26" t="n">
-        <v>4.097100052852174</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -29319,31 +29319,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S26" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T26" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U26" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V26" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W26" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X26" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y26" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="27">
@@ -29353,31 +29353,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C27" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D27" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E27" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F27" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G27" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H27" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I27" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29401,28 +29401,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S27" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T27" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U27" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V27" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W27" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X27" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y27" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="28">
@@ -29432,34 +29432,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C28" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D28" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E28" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F28" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G28" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H28" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I28" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J28" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K28" t="n">
-        <v>17.44799951871617</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29474,34 +29474,34 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.6870224659892</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S28" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T28" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U28" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V28" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W28" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X28" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y28" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="29">
@@ -29511,31 +29511,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C29" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D29" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E29" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F29" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G29" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H29" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I29" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J29" t="n">
-        <v>4.097100052852174</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29556,31 +29556,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S29" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T29" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U29" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V29" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W29" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X29" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y29" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="30">
@@ -29590,31 +29590,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C30" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D30" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E30" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F30" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G30" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H30" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I30" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29638,28 +29638,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S30" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T30" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U30" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V30" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W30" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X30" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y30" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="31">
@@ -29669,34 +29669,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C31" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D31" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E31" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F31" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G31" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H31" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I31" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J31" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K31" t="n">
-        <v>17.44799951871617</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29711,34 +29711,34 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.6870224659892</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S31" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T31" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U31" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V31" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W31" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X31" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y31" t="n">
-        <v>82.6870224659892</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="32">
@@ -29748,31 +29748,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C32" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D32" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E32" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F32" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G32" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H32" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I32" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J32" t="n">
-        <v>4.097100052852174</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29793,31 +29793,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S32" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T32" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U32" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V32" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W32" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X32" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y32" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="33">
@@ -29827,31 +29827,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C33" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D33" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E33" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F33" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G33" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H33" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29875,28 +29875,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>90.42516245839145</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T33" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U33" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V33" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W33" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X33" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y33" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="34">
@@ -29906,34 +29906,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C34" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D34" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E34" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F34" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G34" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H34" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I34" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J34" t="n">
-        <v>90.42516245839145</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>17.44799951871617</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29948,34 +29948,34 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.6870224659892</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S34" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T34" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U34" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V34" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W34" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X34" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="35">
@@ -29985,31 +29985,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C35" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D35" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E35" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F35" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G35" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H35" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I35" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J35" t="n">
-        <v>4.097100052852174</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30030,31 +30030,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S35" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T35" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U35" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V35" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W35" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X35" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y35" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="36">
@@ -30064,31 +30064,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C36" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D36" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E36" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F36" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G36" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H36" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30112,28 +30112,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>90.42516245839145</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T36" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U36" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V36" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W36" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X36" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y36" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="37">
@@ -30143,34 +30143,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C37" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D37" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E37" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F37" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G37" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H37" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I37" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J37" t="n">
-        <v>90.42516245839145</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>17.44799951871617</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30185,34 +30185,34 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.6870224659892</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S37" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T37" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U37" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V37" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W37" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X37" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="38">
@@ -30222,31 +30222,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C38" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D38" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E38" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F38" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G38" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H38" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I38" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J38" t="n">
-        <v>4.097100052852174</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30267,31 +30267,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S38" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T38" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U38" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V38" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W38" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X38" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y38" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="39">
@@ -30301,31 +30301,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C39" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D39" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E39" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F39" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G39" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H39" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30349,28 +30349,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>90.42516245839145</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T39" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U39" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V39" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W39" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X39" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y39" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="40">
@@ -30380,34 +30380,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C40" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D40" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E40" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F40" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G40" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H40" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I40" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J40" t="n">
-        <v>90.42516245839145</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>17.44799951871617</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30422,34 +30422,34 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.6870224659892</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S40" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T40" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U40" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V40" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W40" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X40" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.42516245839145</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="41">
@@ -30459,31 +30459,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="C41" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="D41" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="E41" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="F41" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="G41" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="H41" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="I41" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="J41" t="n">
-        <v>4.097100052852174</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30504,31 +30504,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="S41" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="T41" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="U41" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="V41" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="W41" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="X41" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Y41" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
     </row>
     <row r="42">
@@ -30538,31 +30538,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="C42" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="D42" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="E42" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="F42" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="G42" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="H42" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="I42" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="S42" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="T42" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="U42" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="V42" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="W42" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="X42" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Y42" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
     </row>
     <row r="43">
@@ -30617,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="C43" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="D43" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="E43" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="F43" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="G43" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="H43" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="I43" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="J43" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="K43" t="n">
-        <v>15.06219853599133</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30659,34 +30659,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="R43" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="S43" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="T43" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="U43" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="V43" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="W43" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="X43" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.06219853599133</v>
+        <v>36.40552869322794</v>
       </c>
     </row>
     <row r="44">
@@ -30696,31 +30696,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="C44" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="D44" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="E44" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="F44" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="G44" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="H44" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="I44" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="J44" t="n">
-        <v>4.097100052852174</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30741,31 +30741,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="S44" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="T44" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="U44" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="V44" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="W44" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="X44" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Y44" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
     </row>
     <row r="45">
@@ -30775,31 +30775,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="C45" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="D45" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="E45" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="F45" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="G45" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="H45" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="I45" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="S45" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="T45" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="U45" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="V45" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="W45" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="X45" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Y45" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
     </row>
     <row r="46">
@@ -30854,34 +30854,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="C46" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="D46" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="E46" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="F46" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="G46" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="H46" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="I46" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="J46" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="K46" t="n">
-        <v>15.06219853599134</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30896,34 +30896,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="R46" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="S46" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="T46" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="U46" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="V46" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="W46" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="X46" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.06219853599134</v>
+        <v>36.40552869322794</v>
       </c>
     </row>
   </sheetData>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0925161113036756</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9474806248887678</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3.566727381034957</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>7.852189301760343</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>11.76839629324493</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>14.5997362345548</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>16.24501962895154</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>16.50788103019311</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>15.58792394841718</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.30393245060769</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>5.811515176679517</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.10821088633251</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4049892772318401</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0.007401288904294046</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04950048351498081</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4780704592104726</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.704292963125436</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>4.676710155246498</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>7.993242550750212</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>10.74790103688213</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>12.54229356430018</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>12.87425075418792</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>11.77742425104019</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>9.452421277522959</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.318693299210532</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.073372125605564</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9194497705523841</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1995216857467866</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.003256610757564528</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04149954254994795</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3689686601259011</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.248004425047526</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.93401765828132</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>4.821492307166679</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>6.169850171471354</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>6.505241928988658</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>6.350561815847948</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>5.865771705150827</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>5.019181037131885</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.475020785705187</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.865970340473114</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7232238460750018</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1773162272588685</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.002263611411815345</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0925161113036756</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9474806248887678</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3.566727381034957</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>7.852189301760343</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>11.76839629324493</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>14.5997362345548</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>16.24501962895154</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>16.50788103019311</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>15.58792394841718</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.30393245060769</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>5.811515176679517</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.10821088633251</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4049892772318401</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.007401288904294046</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04950048351498081</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4780704592104726</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.704292963125436</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>4.676710155246498</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>7.993242550750212</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>10.74790103688213</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>12.54229356430018</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>12.87425075418792</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>11.77742425104019</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>9.452421277522959</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.318693299210532</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.073372125605564</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9194497705523841</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1995216857467866</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.003256610757564528</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04149954254994795</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3689686601259011</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.248004425047526</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.93401765828132</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>4.821492307166679</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>6.169850171471354</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>6.505241928988658</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>6.350561815847948</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>5.865771705150827</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>5.019181037131885</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.475020785705187</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.865970340473114</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.7232238460750018</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1773162272588685</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.002263611411815345</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.09251611130367558</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9474806248887679</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>3.566727381034957</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>7.852189301760344</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>11.76839629324494</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>14.5997362345548</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>16.24501962895154</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>16.50788103019311</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>15.58792394841718</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.30393245060769</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>5.811515176679516</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.108210886332509</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.4049892772318401</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0.007401288904294046</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0495004835149808</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4780704592104726</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.704292963125436</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>4.676710155246499</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>7.993242550750212</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>10.74790103688213</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>12.54229356430018</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>12.87425075418792</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>11.77742425104019</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>9.452421277522957</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.318693299210532</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.073372125605564</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9194497705523841</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1995216857467866</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0.003256610757564528</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04149954254994795</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3689686601259011</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.248004425047526</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.93401765828132</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>4.821492307166679</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>6.169850171471354</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>6.505241928988658</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>6.350561815847949</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>5.865771705150827</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.019181037131885</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.475020785705187</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.865970340473114</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0.7232238460750018</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1773162272588684</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0.002263611411815345</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0925161113036756</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9474806248887678</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>3.566727381034957</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>7.852189301760343</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>11.76839629324493</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>14.5997362345548</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>16.24501962895154</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>16.50788103019311</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>15.58792394841718</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.30393245060769</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>5.811515176679517</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>2.10821088633251</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0.4049892772318401</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.007401288904294046</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04950048351498081</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4780704592104726</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.704292963125436</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>4.676710155246498</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>7.993242550750212</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>10.74790103688213</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>12.54229356430018</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>12.87425075418792</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>11.77742425104019</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>9.452421277522959</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.318693299210532</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.073372125605564</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9194497705523841</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1995216857467866</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0.003256610757564528</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04149954254994795</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3689686601259011</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.248004425047526</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.93401765828132</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>4.821492307166679</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>6.169850171471354</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>6.505241928988658</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>6.350561815847948</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>5.865771705150827</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>5.019181037131885</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.475020785705187</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.865970340473114</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.7232238460750018</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1773162272588685</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0.002263611411815345</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0925161113036756</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9474806248887678</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>3.566727381034957</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>7.852189301760343</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>11.76839629324493</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>14.5997362345548</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>16.24501962895154</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>16.50788103019311</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>15.58792394841718</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.30393245060769</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>5.811515176679517</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>2.10821088633251</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0.4049892772318401</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0.007401288904294046</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04950048351498081</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4780704592104726</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.704292963125436</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>4.676710155246498</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>7.993242550750212</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>10.74790103688213</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>12.54229356430018</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>12.87425075418792</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>11.77742425104019</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>9.452421277522959</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.318693299210532</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.073372125605564</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9194497705523841</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.1995216857467866</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0.003256610757564528</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04149954254994795</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3689686601259011</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.248004425047526</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.93401765828132</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>4.821492307166679</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>6.169850171471354</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>6.505241928988658</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>6.350561815847948</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>5.865771705150827</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>5.019181037131885</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.475020785705187</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.865970340473114</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.7232238460750018</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.1773162272588685</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0.002263611411815345</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0925161113036756</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9474806248887678</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>3.566727381034957</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>7.852189301760343</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>11.76839629324493</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>14.5997362345548</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>16.24501962895154</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>16.50788103019311</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>15.58792394841718</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>13.30393245060769</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>5.811515176679517</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>2.10821088633251</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0.4049892772318401</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0.007401288904294046</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.04950048351498081</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4780704592104726</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.704292963125436</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>4.676710155246498</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>7.993242550750212</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>10.74790103688213</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>12.54229356430018</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>12.87425075418792</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>11.77742425104019</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>9.452421277522959</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.318693299210532</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.073372125605564</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0.9194497705523841</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0.1995216857467866</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.003256610757564528</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04149954254994795</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3689686601259011</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.248004425047526</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.93401765828132</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>4.821492307166679</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>6.169850171471354</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>6.505241928988658</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>6.350561815847948</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>5.865771705150827</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>5.019181037131885</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.475020785705187</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.865970340473114</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0.7232238460750018</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0.1773162272588685</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0.002263611411815345</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0925161113036756</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9474806248887678</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>3.566727381034957</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>7.852189301760343</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>11.76839629324493</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>14.5997362345548</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>16.24501962895154</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>16.50788103019311</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>15.58792394841718</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>13.30393245060769</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>5.811515176679517</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>2.10821088633251</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0.4049892772318401</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0.007401288904294046</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04950048351498081</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4780704592104726</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.704292963125436</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>4.676710155246498</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>7.993242550750212</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>10.74790103688213</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>12.54229356430018</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>12.87425075418792</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>11.77742425104019</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>9.452421277522959</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.318693299210532</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.073372125605564</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0.9194497705523841</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0.1995216857467866</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0.003256610757564528</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04149954254994795</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3689686601259011</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.248004425047526</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.93401765828132</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>4.821492307166679</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>6.169850171471354</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>6.505241928988658</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>6.350561815847948</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>5.865771705150827</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>5.019181037131885</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.475020785705187</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.865970340473114</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0.7232238460750018</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0.1773162272588685</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0.002263611411815345</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0925161113036756</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9474806248887678</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>3.566727381034957</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>7.852189301760343</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>11.76839629324493</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>14.5997362345548</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>16.24501962895154</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>16.50788103019311</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>15.58792394841718</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>13.30393245060769</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>5.811515176679517</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>2.10821088633251</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0.4049892772318401</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0.007401288904294046</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04950048351498081</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4780704592104726</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.704292963125436</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>4.676710155246498</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>7.993242550750212</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>10.74790103688213</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>12.54229356430018</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>12.87425075418792</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>11.77742425104019</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>9.452421277522959</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.318693299210532</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.073372125605564</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0.9194497705523841</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.1995216857467866</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0.003256610757564528</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04149954254994795</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3689686601259011</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.248004425047526</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.93401765828132</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>4.821492307166679</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>6.169850171471354</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>6.505241928988658</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>6.350561815847948</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>5.865771705150827</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>5.019181037131885</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.475020785705187</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.865970340473114</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0.7232238460750018</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0.1773162272588685</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0.002263611411815345</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0925161113036756</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9474806248887678</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>3.566727381034957</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.852189301760343</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>11.76839629324493</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>14.5997362345548</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>16.24501962895154</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>16.50788103019311</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>15.58792394841718</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>13.30393245060769</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>5.811515176679517</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>2.10821088633251</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4049892772318401</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.007401288904294046</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.04950048351498081</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.4780704592104726</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.704292963125436</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>4.676710155246498</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>7.993242550750212</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>10.74790103688213</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>12.54229356430018</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>12.87425075418792</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>11.77742425104019</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>9.452421277522959</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.318693299210532</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.073372125605564</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0.9194497705523841</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0.1995216857467866</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0.003256610757564528</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04149954254994795</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3689686601259011</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.248004425047526</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.93401765828132</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>4.821492307166679</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>6.169850171471354</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>6.505241928988658</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>6.350561815847948</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>5.865771705150827</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>5.019181037131885</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.475020785705187</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.865970340473114</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.7232238460750018</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1773162272588685</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.002263611411815345</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0925161113036756</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9474806248887678</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>3.566727381034957</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>7.852189301760343</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>11.76839629324493</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>14.5997362345548</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>16.24501962895154</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>16.50788103019311</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>15.58792394841718</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>13.30393245060769</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>5.811515176679517</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>2.10821088633251</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4049892772318401</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.007401288904294046</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.04950048351498081</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4780704592104726</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.704292963125436</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>4.676710155246498</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>7.993242550750212</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>10.74790103688213</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>12.54229356430018</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>12.87425075418792</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>11.77742425104019</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>9.452421277522959</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.318693299210532</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.073372125605564</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0.9194497705523841</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0.1995216857467866</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0.003256610757564528</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04149954254994795</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3689686601259011</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.248004425047526</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.93401765828132</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>4.821492307166679</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>6.169850171471354</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>6.505241928988658</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>6.350561815847948</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>5.865771705150827</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>5.019181037131885</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.475020785705187</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1.865970340473114</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.7232238460750018</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.1773162272588685</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.002263611411815345</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0925161113036756</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9474806248887678</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>3.566727381034957</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>7.852189301760343</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>11.76839629324493</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>14.5997362345548</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>16.24501962895154</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>16.50788103019311</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>15.58792394841718</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>13.30393245060769</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>5.811515176679517</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>2.10821088633251</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4049892772318401</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.007401288904294046</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04950048351498081</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4780704592104726</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.704292963125436</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>4.676710155246498</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>7.993242550750212</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>10.74790103688213</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>12.54229356430018</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>12.87425075418792</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>11.77742425104019</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>9.452421277522959</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.318693299210532</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.073372125605564</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0.9194497705523841</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0.1995216857467866</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0.003256610757564528</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.04149954254994795</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3689686601259011</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.248004425047526</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.93401765828132</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>4.821492307166679</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>6.169850171471354</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>6.505241928988658</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>6.350561815847948</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>5.865771705150827</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>5.019181037131885</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.475020785705187</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.865970340473114</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.7232238460750018</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.1773162272588685</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.002263611411815345</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0925161113036756</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9474806248887678</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>3.566727381034957</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>7.852189301760343</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>11.76839629324493</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>14.5997362345548</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>16.24501962895154</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>16.50788103019311</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>15.58792394841718</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>13.30393245060769</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>5.811515176679517</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>2.10821088633251</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4049892772318401</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.007401288904294046</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04950048351498081</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4780704592104726</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.704292963125436</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>4.676710155246498</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>7.993242550750212</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>10.74790103688213</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>12.54229356430018</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>12.87425075418792</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>11.77742425104019</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>9.452421277522959</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.318693299210532</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.073372125605564</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0.9194497705523841</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0.1995216857467866</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.003256610757564528</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04149954254994795</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3689686601259011</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.248004425047526</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.93401765828132</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>4.821492307166679</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>6.169850171471354</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>6.505241928988658</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>6.350561815847948</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>5.865771705150827</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>5.019181037131885</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.475020785705187</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>1.865970340473114</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.7232238460750018</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.1773162272588685</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.002263611411815345</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
